--- a/sequences/04_retrieval_1.xlsx
+++ b/sequences/04_retrieval_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1900,6 +1900,30 @@
       <c r="F3" t="s">
         <v>206</v>
       </c>
+      <c r="G3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
@@ -1964,6 +1988,30 @@
       <c r="F5" t="s">
         <v>206</v>
       </c>
+      <c r="G5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" t="s">
+        <v>206</v>
+      </c>
+      <c r="M5" t="s">
+        <v>206</v>
+      </c>
+      <c r="N5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
@@ -1984,6 +2032,30 @@
       <c r="F6" t="s">
         <v>206</v>
       </c>
+      <c r="G6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L6" t="s">
+        <v>206</v>
+      </c>
+      <c r="M6" t="s">
+        <v>206</v>
+      </c>
+      <c r="N6" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -2136,6 +2208,30 @@
       <c r="F10" t="s">
         <v>206</v>
       </c>
+      <c r="G10" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" t="s">
+        <v>206</v>
+      </c>
+      <c r="L10" t="s">
+        <v>206</v>
+      </c>
+      <c r="M10" t="s">
+        <v>206</v>
+      </c>
+      <c r="N10" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
@@ -2244,6 +2340,30 @@
       <c r="F13" t="s">
         <v>206</v>
       </c>
+      <c r="G13" t="s">
+        <v>206</v>
+      </c>
+      <c r="H13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" t="s">
+        <v>206</v>
+      </c>
+      <c r="L13" t="s">
+        <v>206</v>
+      </c>
+      <c r="M13" t="s">
+        <v>206</v>
+      </c>
+      <c r="N13" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
@@ -2352,6 +2472,30 @@
       <c r="F16" t="s">
         <v>206</v>
       </c>
+      <c r="G16" t="s">
+        <v>206</v>
+      </c>
+      <c r="H16" t="s">
+        <v>206</v>
+      </c>
+      <c r="I16" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" t="s">
+        <v>206</v>
+      </c>
+      <c r="K16" t="s">
+        <v>206</v>
+      </c>
+      <c r="L16" t="s">
+        <v>206</v>
+      </c>
+      <c r="M16" t="s">
+        <v>206</v>
+      </c>
+      <c r="N16" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
@@ -2460,6 +2604,30 @@
       <c r="F19" t="s">
         <v>206</v>
       </c>
+      <c r="G19" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" t="s">
+        <v>206</v>
+      </c>
+      <c r="I19" t="s">
+        <v>206</v>
+      </c>
+      <c r="J19" t="s">
+        <v>206</v>
+      </c>
+      <c r="K19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19" t="s">
+        <v>206</v>
+      </c>
+      <c r="M19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N19" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
@@ -2480,6 +2648,30 @@
       <c r="F20" t="s">
         <v>206</v>
       </c>
+      <c r="G20" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" t="s">
+        <v>206</v>
+      </c>
+      <c r="I20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="s">
+        <v>206</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -2676,6 +2868,30 @@
       <c r="F25" t="s">
         <v>206</v>
       </c>
+      <c r="G25" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" t="s">
+        <v>206</v>
+      </c>
+      <c r="N25" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
@@ -2784,6 +3000,30 @@
       <c r="F28" t="s">
         <v>206</v>
       </c>
+      <c r="G28" t="s">
+        <v>206</v>
+      </c>
+      <c r="H28" t="s">
+        <v>206</v>
+      </c>
+      <c r="I28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" t="s">
+        <v>206</v>
+      </c>
+      <c r="M28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N28" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
@@ -2848,6 +3088,30 @@
       <c r="F30" t="s">
         <v>206</v>
       </c>
+      <c r="G30" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" t="s">
+        <v>206</v>
+      </c>
+      <c r="J30" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" t="s">
+        <v>206</v>
+      </c>
+      <c r="M30" t="s">
+        <v>206</v>
+      </c>
+      <c r="N30" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -2912,6 +3176,30 @@
       <c r="F32" t="s">
         <v>206</v>
       </c>
+      <c r="G32" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" t="s">
+        <v>206</v>
+      </c>
+      <c r="I32" t="s">
+        <v>206</v>
+      </c>
+      <c r="J32" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" t="s">
+        <v>206</v>
+      </c>
+      <c r="L32" t="s">
+        <v>206</v>
+      </c>
+      <c r="M32" t="s">
+        <v>206</v>
+      </c>
+      <c r="N32" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
@@ -2976,6 +3264,30 @@
       <c r="F34" t="s">
         <v>206</v>
       </c>
+      <c r="G34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H34" t="s">
+        <v>206</v>
+      </c>
+      <c r="I34" t="s">
+        <v>206</v>
+      </c>
+      <c r="J34" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" t="s">
+        <v>206</v>
+      </c>
+      <c r="L34" t="s">
+        <v>206</v>
+      </c>
+      <c r="M34" t="s">
+        <v>206</v>
+      </c>
+      <c r="N34" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -2996,6 +3308,30 @@
       <c r="F35" t="s">
         <v>206</v>
       </c>
+      <c r="G35" t="s">
+        <v>206</v>
+      </c>
+      <c r="H35" t="s">
+        <v>206</v>
+      </c>
+      <c r="I35" t="s">
+        <v>206</v>
+      </c>
+      <c r="J35" t="s">
+        <v>206</v>
+      </c>
+      <c r="K35" t="s">
+        <v>206</v>
+      </c>
+      <c r="L35" t="s">
+        <v>206</v>
+      </c>
+      <c r="M35" t="s">
+        <v>206</v>
+      </c>
+      <c r="N35" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
@@ -3148,6 +3484,30 @@
       <c r="F39" t="s">
         <v>206</v>
       </c>
+      <c r="G39" t="s">
+        <v>206</v>
+      </c>
+      <c r="H39" t="s">
+        <v>206</v>
+      </c>
+      <c r="I39" t="s">
+        <v>206</v>
+      </c>
+      <c r="J39" t="s">
+        <v>206</v>
+      </c>
+      <c r="K39" t="s">
+        <v>206</v>
+      </c>
+      <c r="L39" t="s">
+        <v>206</v>
+      </c>
+      <c r="M39" t="s">
+        <v>206</v>
+      </c>
+      <c r="N39" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
@@ -3212,6 +3572,30 @@
       <c r="F41" t="s">
         <v>206</v>
       </c>
+      <c r="G41" t="s">
+        <v>206</v>
+      </c>
+      <c r="H41" t="s">
+        <v>206</v>
+      </c>
+      <c r="I41" t="s">
+        <v>206</v>
+      </c>
+      <c r="J41" t="s">
+        <v>206</v>
+      </c>
+      <c r="K41" t="s">
+        <v>206</v>
+      </c>
+      <c r="L41" t="s">
+        <v>206</v>
+      </c>
+      <c r="M41" t="s">
+        <v>206</v>
+      </c>
+      <c r="N41" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
@@ -3276,6 +3660,30 @@
       <c r="F43" t="s">
         <v>206</v>
       </c>
+      <c r="G43" t="s">
+        <v>206</v>
+      </c>
+      <c r="H43" t="s">
+        <v>206</v>
+      </c>
+      <c r="I43" t="s">
+        <v>206</v>
+      </c>
+      <c r="J43" t="s">
+        <v>206</v>
+      </c>
+      <c r="K43" t="s">
+        <v>206</v>
+      </c>
+      <c r="L43" t="s">
+        <v>206</v>
+      </c>
+      <c r="M43" t="s">
+        <v>206</v>
+      </c>
+      <c r="N43" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
@@ -3472,6 +3880,30 @@
       <c r="F48" t="s">
         <v>206</v>
       </c>
+      <c r="G48" t="s">
+        <v>206</v>
+      </c>
+      <c r="H48" t="s">
+        <v>206</v>
+      </c>
+      <c r="I48" t="s">
+        <v>206</v>
+      </c>
+      <c r="J48" t="s">
+        <v>206</v>
+      </c>
+      <c r="K48" t="s">
+        <v>206</v>
+      </c>
+      <c r="L48" t="s">
+        <v>206</v>
+      </c>
+      <c r="M48" t="s">
+        <v>206</v>
+      </c>
+      <c r="N48" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
@@ -3668,6 +4100,30 @@
       <c r="F53" t="s">
         <v>206</v>
       </c>
+      <c r="G53" t="s">
+        <v>206</v>
+      </c>
+      <c r="H53" t="s">
+        <v>206</v>
+      </c>
+      <c r="I53" t="s">
+        <v>206</v>
+      </c>
+      <c r="J53" t="s">
+        <v>206</v>
+      </c>
+      <c r="K53" t="s">
+        <v>206</v>
+      </c>
+      <c r="L53" t="s">
+        <v>206</v>
+      </c>
+      <c r="M53" t="s">
+        <v>206</v>
+      </c>
+      <c r="N53" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
@@ -3908,6 +4364,30 @@
       <c r="F59" t="s">
         <v>206</v>
       </c>
+      <c r="G59" t="s">
+        <v>206</v>
+      </c>
+      <c r="H59" t="s">
+        <v>206</v>
+      </c>
+      <c r="I59" t="s">
+        <v>206</v>
+      </c>
+      <c r="J59" t="s">
+        <v>206</v>
+      </c>
+      <c r="K59" t="s">
+        <v>206</v>
+      </c>
+      <c r="L59" t="s">
+        <v>206</v>
+      </c>
+      <c r="M59" t="s">
+        <v>206</v>
+      </c>
+      <c r="N59" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
@@ -4060,6 +4540,30 @@
       <c r="F63" t="s">
         <v>206</v>
       </c>
+      <c r="G63" t="s">
+        <v>206</v>
+      </c>
+      <c r="H63" t="s">
+        <v>206</v>
+      </c>
+      <c r="I63" t="s">
+        <v>206</v>
+      </c>
+      <c r="J63" t="s">
+        <v>206</v>
+      </c>
+      <c r="K63" t="s">
+        <v>206</v>
+      </c>
+      <c r="L63" t="s">
+        <v>206</v>
+      </c>
+      <c r="M63" t="s">
+        <v>206</v>
+      </c>
+      <c r="N63" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
@@ -4168,6 +4672,30 @@
       <c r="F66" t="s">
         <v>206</v>
       </c>
+      <c r="G66" t="s">
+        <v>206</v>
+      </c>
+      <c r="H66" t="s">
+        <v>206</v>
+      </c>
+      <c r="I66" t="s">
+        <v>206</v>
+      </c>
+      <c r="J66" t="s">
+        <v>206</v>
+      </c>
+      <c r="K66" t="s">
+        <v>206</v>
+      </c>
+      <c r="L66" t="s">
+        <v>206</v>
+      </c>
+      <c r="M66" t="s">
+        <v>206</v>
+      </c>
+      <c r="N66" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
@@ -4320,6 +4848,30 @@
       <c r="F70" t="s">
         <v>206</v>
       </c>
+      <c r="G70" t="s">
+        <v>206</v>
+      </c>
+      <c r="H70" t="s">
+        <v>206</v>
+      </c>
+      <c r="I70" t="s">
+        <v>206</v>
+      </c>
+      <c r="J70" t="s">
+        <v>206</v>
+      </c>
+      <c r="K70" t="s">
+        <v>206</v>
+      </c>
+      <c r="L70" t="s">
+        <v>206</v>
+      </c>
+      <c r="M70" t="s">
+        <v>206</v>
+      </c>
+      <c r="N70" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
@@ -4384,6 +4936,30 @@
       <c r="F72" t="s">
         <v>206</v>
       </c>
+      <c r="G72" t="s">
+        <v>206</v>
+      </c>
+      <c r="H72" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" t="s">
+        <v>206</v>
+      </c>
+      <c r="J72" t="s">
+        <v>206</v>
+      </c>
+      <c r="K72" t="s">
+        <v>206</v>
+      </c>
+      <c r="L72" t="s">
+        <v>206</v>
+      </c>
+      <c r="M72" t="s">
+        <v>206</v>
+      </c>
+      <c r="N72" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
@@ -4448,6 +5024,30 @@
       <c r="F74" t="s">
         <v>206</v>
       </c>
+      <c r="G74" t="s">
+        <v>206</v>
+      </c>
+      <c r="H74" t="s">
+        <v>206</v>
+      </c>
+      <c r="I74" t="s">
+        <v>206</v>
+      </c>
+      <c r="J74" t="s">
+        <v>206</v>
+      </c>
+      <c r="K74" t="s">
+        <v>206</v>
+      </c>
+      <c r="L74" t="s">
+        <v>206</v>
+      </c>
+      <c r="M74" t="s">
+        <v>206</v>
+      </c>
+      <c r="N74" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
@@ -4556,6 +5156,30 @@
       <c r="F77" t="s">
         <v>206</v>
       </c>
+      <c r="G77" t="s">
+        <v>206</v>
+      </c>
+      <c r="H77" t="s">
+        <v>206</v>
+      </c>
+      <c r="I77" t="s">
+        <v>206</v>
+      </c>
+      <c r="J77" t="s">
+        <v>206</v>
+      </c>
+      <c r="K77" t="s">
+        <v>206</v>
+      </c>
+      <c r="L77" t="s">
+        <v>206</v>
+      </c>
+      <c r="M77" t="s">
+        <v>206</v>
+      </c>
+      <c r="N77" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
@@ -4620,6 +5244,30 @@
       <c r="F79" t="s">
         <v>206</v>
       </c>
+      <c r="G79" t="s">
+        <v>206</v>
+      </c>
+      <c r="H79" t="s">
+        <v>206</v>
+      </c>
+      <c r="I79" t="s">
+        <v>206</v>
+      </c>
+      <c r="J79" t="s">
+        <v>206</v>
+      </c>
+      <c r="K79" t="s">
+        <v>206</v>
+      </c>
+      <c r="L79" t="s">
+        <v>206</v>
+      </c>
+      <c r="M79" t="s">
+        <v>206</v>
+      </c>
+      <c r="N79" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
@@ -4860,6 +5508,30 @@
       <c r="F85" t="s">
         <v>206</v>
       </c>
+      <c r="G85" t="s">
+        <v>206</v>
+      </c>
+      <c r="H85" t="s">
+        <v>206</v>
+      </c>
+      <c r="I85" t="s">
+        <v>206</v>
+      </c>
+      <c r="J85" t="s">
+        <v>206</v>
+      </c>
+      <c r="K85" t="s">
+        <v>206</v>
+      </c>
+      <c r="L85" t="s">
+        <v>206</v>
+      </c>
+      <c r="M85" t="s">
+        <v>206</v>
+      </c>
+      <c r="N85" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
@@ -4880,6 +5552,30 @@
       <c r="F86" t="s">
         <v>206</v>
       </c>
+      <c r="G86" t="s">
+        <v>206</v>
+      </c>
+      <c r="H86" t="s">
+        <v>206</v>
+      </c>
+      <c r="I86" t="s">
+        <v>206</v>
+      </c>
+      <c r="J86" t="s">
+        <v>206</v>
+      </c>
+      <c r="K86" t="s">
+        <v>206</v>
+      </c>
+      <c r="L86" t="s">
+        <v>206</v>
+      </c>
+      <c r="M86" t="s">
+        <v>206</v>
+      </c>
+      <c r="N86" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
@@ -4900,6 +5596,30 @@
       <c r="F87" t="s">
         <v>206</v>
       </c>
+      <c r="G87" t="s">
+        <v>206</v>
+      </c>
+      <c r="H87" t="s">
+        <v>206</v>
+      </c>
+      <c r="I87" t="s">
+        <v>206</v>
+      </c>
+      <c r="J87" t="s">
+        <v>206</v>
+      </c>
+      <c r="K87" t="s">
+        <v>206</v>
+      </c>
+      <c r="L87" t="s">
+        <v>206</v>
+      </c>
+      <c r="M87" t="s">
+        <v>206</v>
+      </c>
+      <c r="N87" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1">
@@ -5052,6 +5772,30 @@
       <c r="F91" t="s">
         <v>206</v>
       </c>
+      <c r="G91" t="s">
+        <v>206</v>
+      </c>
+      <c r="H91" t="s">
+        <v>206</v>
+      </c>
+      <c r="I91" t="s">
+        <v>206</v>
+      </c>
+      <c r="J91" t="s">
+        <v>206</v>
+      </c>
+      <c r="K91" t="s">
+        <v>206</v>
+      </c>
+      <c r="L91" t="s">
+        <v>206</v>
+      </c>
+      <c r="M91" t="s">
+        <v>206</v>
+      </c>
+      <c r="N91" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
@@ -5072,6 +5816,30 @@
       <c r="F92" t="s">
         <v>206</v>
       </c>
+      <c r="G92" t="s">
+        <v>206</v>
+      </c>
+      <c r="H92" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" t="s">
+        <v>206</v>
+      </c>
+      <c r="J92" t="s">
+        <v>206</v>
+      </c>
+      <c r="K92" t="s">
+        <v>206</v>
+      </c>
+      <c r="L92" t="s">
+        <v>206</v>
+      </c>
+      <c r="M92" t="s">
+        <v>206</v>
+      </c>
+      <c r="N92" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
@@ -5180,6 +5948,30 @@
       <c r="F95" t="s">
         <v>206</v>
       </c>
+      <c r="G95" t="s">
+        <v>206</v>
+      </c>
+      <c r="H95" t="s">
+        <v>206</v>
+      </c>
+      <c r="I95" t="s">
+        <v>206</v>
+      </c>
+      <c r="J95" t="s">
+        <v>206</v>
+      </c>
+      <c r="K95" t="s">
+        <v>206</v>
+      </c>
+      <c r="L95" t="s">
+        <v>206</v>
+      </c>
+      <c r="M95" t="s">
+        <v>206</v>
+      </c>
+      <c r="N95" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
@@ -5244,6 +6036,30 @@
       <c r="F97" t="s">
         <v>206</v>
       </c>
+      <c r="G97" t="s">
+        <v>206</v>
+      </c>
+      <c r="H97" t="s">
+        <v>206</v>
+      </c>
+      <c r="I97" t="s">
+        <v>206</v>
+      </c>
+      <c r="J97" t="s">
+        <v>206</v>
+      </c>
+      <c r="K97" t="s">
+        <v>206</v>
+      </c>
+      <c r="L97" t="s">
+        <v>206</v>
+      </c>
+      <c r="M97" t="s">
+        <v>206</v>
+      </c>
+      <c r="N97" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
@@ -5352,6 +6168,30 @@
       <c r="F100" t="s">
         <v>206</v>
       </c>
+      <c r="G100" t="s">
+        <v>206</v>
+      </c>
+      <c r="H100" t="s">
+        <v>206</v>
+      </c>
+      <c r="I100" t="s">
+        <v>206</v>
+      </c>
+      <c r="J100" t="s">
+        <v>206</v>
+      </c>
+      <c r="K100" t="s">
+        <v>206</v>
+      </c>
+      <c r="L100" t="s">
+        <v>206</v>
+      </c>
+      <c r="M100" t="s">
+        <v>206</v>
+      </c>
+      <c r="N100" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
@@ -5416,6 +6256,30 @@
       <c r="F102" t="s">
         <v>206</v>
       </c>
+      <c r="G102" t="s">
+        <v>206</v>
+      </c>
+      <c r="H102" t="s">
+        <v>206</v>
+      </c>
+      <c r="I102" t="s">
+        <v>206</v>
+      </c>
+      <c r="J102" t="s">
+        <v>206</v>
+      </c>
+      <c r="K102" t="s">
+        <v>206</v>
+      </c>
+      <c r="L102" t="s">
+        <v>206</v>
+      </c>
+      <c r="M102" t="s">
+        <v>206</v>
+      </c>
+      <c r="N102" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="1">
@@ -5436,6 +6300,30 @@
       <c r="F103" t="s">
         <v>206</v>
       </c>
+      <c r="G103" t="s">
+        <v>206</v>
+      </c>
+      <c r="H103" t="s">
+        <v>206</v>
+      </c>
+      <c r="I103" t="s">
+        <v>206</v>
+      </c>
+      <c r="J103" t="s">
+        <v>206</v>
+      </c>
+      <c r="K103" t="s">
+        <v>206</v>
+      </c>
+      <c r="L103" t="s">
+        <v>206</v>
+      </c>
+      <c r="M103" t="s">
+        <v>206</v>
+      </c>
+      <c r="N103" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
@@ -5456,6 +6344,30 @@
       <c r="F104" t="s">
         <v>206</v>
       </c>
+      <c r="G104" t="s">
+        <v>206</v>
+      </c>
+      <c r="H104" t="s">
+        <v>206</v>
+      </c>
+      <c r="I104" t="s">
+        <v>206</v>
+      </c>
+      <c r="J104" t="s">
+        <v>206</v>
+      </c>
+      <c r="K104" t="s">
+        <v>206</v>
+      </c>
+      <c r="L104" t="s">
+        <v>206</v>
+      </c>
+      <c r="M104" t="s">
+        <v>206</v>
+      </c>
+      <c r="N104" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="1">
@@ -5520,6 +6432,30 @@
       <c r="F106" t="s">
         <v>206</v>
       </c>
+      <c r="G106" t="s">
+        <v>206</v>
+      </c>
+      <c r="H106" t="s">
+        <v>206</v>
+      </c>
+      <c r="I106" t="s">
+        <v>206</v>
+      </c>
+      <c r="J106" t="s">
+        <v>206</v>
+      </c>
+      <c r="K106" t="s">
+        <v>206</v>
+      </c>
+      <c r="L106" t="s">
+        <v>206</v>
+      </c>
+      <c r="M106" t="s">
+        <v>206</v>
+      </c>
+      <c r="N106" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
@@ -5540,6 +6476,30 @@
       <c r="F107" t="s">
         <v>206</v>
       </c>
+      <c r="G107" t="s">
+        <v>206</v>
+      </c>
+      <c r="H107" t="s">
+        <v>206</v>
+      </c>
+      <c r="I107" t="s">
+        <v>206</v>
+      </c>
+      <c r="J107" t="s">
+        <v>206</v>
+      </c>
+      <c r="K107" t="s">
+        <v>206</v>
+      </c>
+      <c r="L107" t="s">
+        <v>206</v>
+      </c>
+      <c r="M107" t="s">
+        <v>206</v>
+      </c>
+      <c r="N107" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
@@ -5648,6 +6608,30 @@
       <c r="F110" t="s">
         <v>206</v>
       </c>
+      <c r="G110" t="s">
+        <v>206</v>
+      </c>
+      <c r="H110" t="s">
+        <v>206</v>
+      </c>
+      <c r="I110" t="s">
+        <v>206</v>
+      </c>
+      <c r="J110" t="s">
+        <v>206</v>
+      </c>
+      <c r="K110" t="s">
+        <v>206</v>
+      </c>
+      <c r="L110" t="s">
+        <v>206</v>
+      </c>
+      <c r="M110" t="s">
+        <v>206</v>
+      </c>
+      <c r="N110" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -5668,6 +6652,30 @@
       <c r="F111" t="s">
         <v>206</v>
       </c>
+      <c r="G111" t="s">
+        <v>206</v>
+      </c>
+      <c r="H111" t="s">
+        <v>206</v>
+      </c>
+      <c r="I111" t="s">
+        <v>206</v>
+      </c>
+      <c r="J111" t="s">
+        <v>206</v>
+      </c>
+      <c r="K111" t="s">
+        <v>206</v>
+      </c>
+      <c r="L111" t="s">
+        <v>206</v>
+      </c>
+      <c r="M111" t="s">
+        <v>206</v>
+      </c>
+      <c r="N111" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
@@ -5688,6 +6696,30 @@
       <c r="F112" t="s">
         <v>206</v>
       </c>
+      <c r="G112" t="s">
+        <v>206</v>
+      </c>
+      <c r="H112" t="s">
+        <v>206</v>
+      </c>
+      <c r="I112" t="s">
+        <v>206</v>
+      </c>
+      <c r="J112" t="s">
+        <v>206</v>
+      </c>
+      <c r="K112" t="s">
+        <v>206</v>
+      </c>
+      <c r="L112" t="s">
+        <v>206</v>
+      </c>
+      <c r="M112" t="s">
+        <v>206</v>
+      </c>
+      <c r="N112" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
@@ -5972,6 +7004,30 @@
       <c r="F119" t="s">
         <v>206</v>
       </c>
+      <c r="G119" t="s">
+        <v>206</v>
+      </c>
+      <c r="H119" t="s">
+        <v>206</v>
+      </c>
+      <c r="I119" t="s">
+        <v>206</v>
+      </c>
+      <c r="J119" t="s">
+        <v>206</v>
+      </c>
+      <c r="K119" t="s">
+        <v>206</v>
+      </c>
+      <c r="L119" t="s">
+        <v>206</v>
+      </c>
+      <c r="M119" t="s">
+        <v>206</v>
+      </c>
+      <c r="N119" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
@@ -6080,6 +7136,30 @@
       <c r="F122" t="s">
         <v>206</v>
       </c>
+      <c r="G122" t="s">
+        <v>206</v>
+      </c>
+      <c r="H122" t="s">
+        <v>206</v>
+      </c>
+      <c r="I122" t="s">
+        <v>206</v>
+      </c>
+      <c r="J122" t="s">
+        <v>206</v>
+      </c>
+      <c r="K122" t="s">
+        <v>206</v>
+      </c>
+      <c r="L122" t="s">
+        <v>206</v>
+      </c>
+      <c r="M122" t="s">
+        <v>206</v>
+      </c>
+      <c r="N122" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="1">
@@ -6320,6 +7400,30 @@
       <c r="F128" t="s">
         <v>206</v>
       </c>
+      <c r="G128" t="s">
+        <v>206</v>
+      </c>
+      <c r="H128" t="s">
+        <v>206</v>
+      </c>
+      <c r="I128" t="s">
+        <v>206</v>
+      </c>
+      <c r="J128" t="s">
+        <v>206</v>
+      </c>
+      <c r="K128" t="s">
+        <v>206</v>
+      </c>
+      <c r="L128" t="s">
+        <v>206</v>
+      </c>
+      <c r="M128" t="s">
+        <v>206</v>
+      </c>
+      <c r="N128" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
@@ -6340,6 +7444,30 @@
       <c r="F129" t="s">
         <v>206</v>
       </c>
+      <c r="G129" t="s">
+        <v>206</v>
+      </c>
+      <c r="H129" t="s">
+        <v>206</v>
+      </c>
+      <c r="I129" t="s">
+        <v>206</v>
+      </c>
+      <c r="J129" t="s">
+        <v>206</v>
+      </c>
+      <c r="K129" t="s">
+        <v>206</v>
+      </c>
+      <c r="L129" t="s">
+        <v>206</v>
+      </c>
+      <c r="M129" t="s">
+        <v>206</v>
+      </c>
+      <c r="N129" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
@@ -6580,6 +7708,30 @@
       <c r="F135" t="s">
         <v>206</v>
       </c>
+      <c r="G135" t="s">
+        <v>206</v>
+      </c>
+      <c r="H135" t="s">
+        <v>206</v>
+      </c>
+      <c r="I135" t="s">
+        <v>206</v>
+      </c>
+      <c r="J135" t="s">
+        <v>206</v>
+      </c>
+      <c r="K135" t="s">
+        <v>206</v>
+      </c>
+      <c r="L135" t="s">
+        <v>206</v>
+      </c>
+      <c r="M135" t="s">
+        <v>206</v>
+      </c>
+      <c r="N135" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
@@ -6776,6 +7928,30 @@
       <c r="F140" t="s">
         <v>206</v>
       </c>
+      <c r="G140" t="s">
+        <v>206</v>
+      </c>
+      <c r="H140" t="s">
+        <v>206</v>
+      </c>
+      <c r="I140" t="s">
+        <v>206</v>
+      </c>
+      <c r="J140" t="s">
+        <v>206</v>
+      </c>
+      <c r="K140" t="s">
+        <v>206</v>
+      </c>
+      <c r="L140" t="s">
+        <v>206</v>
+      </c>
+      <c r="M140" t="s">
+        <v>206</v>
+      </c>
+      <c r="N140" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
@@ -7016,6 +8192,30 @@
       <c r="F146" t="s">
         <v>206</v>
       </c>
+      <c r="G146" t="s">
+        <v>206</v>
+      </c>
+      <c r="H146" t="s">
+        <v>206</v>
+      </c>
+      <c r="I146" t="s">
+        <v>206</v>
+      </c>
+      <c r="J146" t="s">
+        <v>206</v>
+      </c>
+      <c r="K146" t="s">
+        <v>206</v>
+      </c>
+      <c r="L146" t="s">
+        <v>206</v>
+      </c>
+      <c r="M146" t="s">
+        <v>206</v>
+      </c>
+      <c r="N146" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
@@ -7212,6 +8412,30 @@
       <c r="F151" t="s">
         <v>206</v>
       </c>
+      <c r="G151" t="s">
+        <v>206</v>
+      </c>
+      <c r="H151" t="s">
+        <v>206</v>
+      </c>
+      <c r="I151" t="s">
+        <v>206</v>
+      </c>
+      <c r="J151" t="s">
+        <v>206</v>
+      </c>
+      <c r="K151" t="s">
+        <v>206</v>
+      </c>
+      <c r="L151" t="s">
+        <v>206</v>
+      </c>
+      <c r="M151" t="s">
+        <v>206</v>
+      </c>
+      <c r="N151" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
@@ -7232,6 +8456,30 @@
       <c r="F152" t="s">
         <v>206</v>
       </c>
+      <c r="G152" t="s">
+        <v>206</v>
+      </c>
+      <c r="H152" t="s">
+        <v>206</v>
+      </c>
+      <c r="I152" t="s">
+        <v>206</v>
+      </c>
+      <c r="J152" t="s">
+        <v>206</v>
+      </c>
+      <c r="K152" t="s">
+        <v>206</v>
+      </c>
+      <c r="L152" t="s">
+        <v>206</v>
+      </c>
+      <c r="M152" t="s">
+        <v>206</v>
+      </c>
+      <c r="N152" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
@@ -7252,6 +8500,30 @@
       <c r="F153" t="s">
         <v>206</v>
       </c>
+      <c r="G153" t="s">
+        <v>206</v>
+      </c>
+      <c r="H153" t="s">
+        <v>206</v>
+      </c>
+      <c r="I153" t="s">
+        <v>206</v>
+      </c>
+      <c r="J153" t="s">
+        <v>206</v>
+      </c>
+      <c r="K153" t="s">
+        <v>206</v>
+      </c>
+      <c r="L153" t="s">
+        <v>206</v>
+      </c>
+      <c r="M153" t="s">
+        <v>206</v>
+      </c>
+      <c r="N153" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
@@ -7316,6 +8588,30 @@
       <c r="F155" t="s">
         <v>206</v>
       </c>
+      <c r="G155" t="s">
+        <v>206</v>
+      </c>
+      <c r="H155" t="s">
+        <v>206</v>
+      </c>
+      <c r="I155" t="s">
+        <v>206</v>
+      </c>
+      <c r="J155" t="s">
+        <v>206</v>
+      </c>
+      <c r="K155" t="s">
+        <v>206</v>
+      </c>
+      <c r="L155" t="s">
+        <v>206</v>
+      </c>
+      <c r="M155" t="s">
+        <v>206</v>
+      </c>
+      <c r="N155" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
@@ -7468,6 +8764,30 @@
       <c r="F159" t="s">
         <v>206</v>
       </c>
+      <c r="G159" t="s">
+        <v>206</v>
+      </c>
+      <c r="H159" t="s">
+        <v>206</v>
+      </c>
+      <c r="I159" t="s">
+        <v>206</v>
+      </c>
+      <c r="J159" t="s">
+        <v>206</v>
+      </c>
+      <c r="K159" t="s">
+        <v>206</v>
+      </c>
+      <c r="L159" t="s">
+        <v>206</v>
+      </c>
+      <c r="M159" t="s">
+        <v>206</v>
+      </c>
+      <c r="N159" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
@@ -7664,6 +8984,30 @@
       <c r="F164" t="s">
         <v>206</v>
       </c>
+      <c r="G164" t="s">
+        <v>206</v>
+      </c>
+      <c r="H164" t="s">
+        <v>206</v>
+      </c>
+      <c r="I164" t="s">
+        <v>206</v>
+      </c>
+      <c r="J164" t="s">
+        <v>206</v>
+      </c>
+      <c r="K164" t="s">
+        <v>206</v>
+      </c>
+      <c r="L164" t="s">
+        <v>206</v>
+      </c>
+      <c r="M164" t="s">
+        <v>206</v>
+      </c>
+      <c r="N164" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
@@ -7816,6 +9160,30 @@
       <c r="F168" t="s">
         <v>206</v>
       </c>
+      <c r="G168" t="s">
+        <v>206</v>
+      </c>
+      <c r="H168" t="s">
+        <v>206</v>
+      </c>
+      <c r="I168" t="s">
+        <v>206</v>
+      </c>
+      <c r="J168" t="s">
+        <v>206</v>
+      </c>
+      <c r="K168" t="s">
+        <v>206</v>
+      </c>
+      <c r="L168" t="s">
+        <v>206</v>
+      </c>
+      <c r="M168" t="s">
+        <v>206</v>
+      </c>
+      <c r="N168" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1">
@@ -8012,6 +9380,30 @@
       <c r="F173" t="s">
         <v>206</v>
       </c>
+      <c r="G173" t="s">
+        <v>206</v>
+      </c>
+      <c r="H173" t="s">
+        <v>206</v>
+      </c>
+      <c r="I173" t="s">
+        <v>206</v>
+      </c>
+      <c r="J173" t="s">
+        <v>206</v>
+      </c>
+      <c r="K173" t="s">
+        <v>206</v>
+      </c>
+      <c r="L173" t="s">
+        <v>206</v>
+      </c>
+      <c r="M173" t="s">
+        <v>206</v>
+      </c>
+      <c r="N173" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
@@ -8032,6 +9424,30 @@
       <c r="F174" t="s">
         <v>206</v>
       </c>
+      <c r="G174" t="s">
+        <v>206</v>
+      </c>
+      <c r="H174" t="s">
+        <v>206</v>
+      </c>
+      <c r="I174" t="s">
+        <v>206</v>
+      </c>
+      <c r="J174" t="s">
+        <v>206</v>
+      </c>
+      <c r="K174" t="s">
+        <v>206</v>
+      </c>
+      <c r="L174" t="s">
+        <v>206</v>
+      </c>
+      <c r="M174" t="s">
+        <v>206</v>
+      </c>
+      <c r="N174" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="1">
@@ -8096,6 +9512,30 @@
       <c r="F176" t="s">
         <v>206</v>
       </c>
+      <c r="G176" t="s">
+        <v>206</v>
+      </c>
+      <c r="H176" t="s">
+        <v>206</v>
+      </c>
+      <c r="I176" t="s">
+        <v>206</v>
+      </c>
+      <c r="J176" t="s">
+        <v>206</v>
+      </c>
+      <c r="K176" t="s">
+        <v>206</v>
+      </c>
+      <c r="L176" t="s">
+        <v>206</v>
+      </c>
+      <c r="M176" t="s">
+        <v>206</v>
+      </c>
+      <c r="N176" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="1">
@@ -8336,6 +9776,30 @@
       <c r="F182" t="s">
         <v>206</v>
       </c>
+      <c r="G182" t="s">
+        <v>206</v>
+      </c>
+      <c r="H182" t="s">
+        <v>206</v>
+      </c>
+      <c r="I182" t="s">
+        <v>206</v>
+      </c>
+      <c r="J182" t="s">
+        <v>206</v>
+      </c>
+      <c r="K182" t="s">
+        <v>206</v>
+      </c>
+      <c r="L182" t="s">
+        <v>206</v>
+      </c>
+      <c r="M182" t="s">
+        <v>206</v>
+      </c>
+      <c r="N182" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
@@ -8488,6 +9952,30 @@
       <c r="F186" t="s">
         <v>206</v>
       </c>
+      <c r="G186" t="s">
+        <v>206</v>
+      </c>
+      <c r="H186" t="s">
+        <v>206</v>
+      </c>
+      <c r="I186" t="s">
+        <v>206</v>
+      </c>
+      <c r="J186" t="s">
+        <v>206</v>
+      </c>
+      <c r="K186" t="s">
+        <v>206</v>
+      </c>
+      <c r="L186" t="s">
+        <v>206</v>
+      </c>
+      <c r="M186" t="s">
+        <v>206</v>
+      </c>
+      <c r="N186" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="1">
@@ -8508,6 +9996,30 @@
       <c r="F187" t="s">
         <v>206</v>
       </c>
+      <c r="G187" t="s">
+        <v>206</v>
+      </c>
+      <c r="H187" t="s">
+        <v>206</v>
+      </c>
+      <c r="I187" t="s">
+        <v>206</v>
+      </c>
+      <c r="J187" t="s">
+        <v>206</v>
+      </c>
+      <c r="K187" t="s">
+        <v>206</v>
+      </c>
+      <c r="L187" t="s">
+        <v>206</v>
+      </c>
+      <c r="M187" t="s">
+        <v>206</v>
+      </c>
+      <c r="N187" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="1">
@@ -8729,7 +10241,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:14">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8746,6 +10258,30 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
+        <v>206</v>
+      </c>
+      <c r="G193" t="s">
+        <v>206</v>
+      </c>
+      <c r="H193" t="s">
+        <v>206</v>
+      </c>
+      <c r="I193" t="s">
+        <v>206</v>
+      </c>
+      <c r="J193" t="s">
+        <v>206</v>
+      </c>
+      <c r="K193" t="s">
+        <v>206</v>
+      </c>
+      <c r="L193" t="s">
+        <v>206</v>
+      </c>
+      <c r="M193" t="s">
+        <v>206</v>
+      </c>
+      <c r="N193" t="s">
         <v>206</v>
       </c>
     </row>

--- a/sequences/04_retrieval_1.xlsx
+++ b/sequences/04_retrieval_1.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>feuern</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>sitzen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>schämen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>wetten</t>
+  </si>
+  <si>
+    <t>eignen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>stürzen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>rauben</t>
+  </si>
+  <si>
+    <t>stellen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>morden</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>bremsen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>weinen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>garen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>orten</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>ahnen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>trösten</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>plaudern</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>pissen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>pressen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>fehlen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>kratzen</t>
+  </si>
+  <si>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>schnellen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>tauchen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>scheiden</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>wehren</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
     <t>saufen</t>
   </si>
   <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
     <t>wüten</t>
   </si>
   <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>suchen</t>
-  </si>
-  <si>
-    <t>fassen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>nähern</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>baden</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>eignen</t>
+    <t>streifen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>bauen</t>
   </si>
   <si>
     <t>heben</t>
   </si>
   <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>morden</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>lauten</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>leiden</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>schämen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>garen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>nutzen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>dingen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>sterben</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>checken</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>melden</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>stürzen</t>
-  </si>
-  <si>
-    <t>doppeln</t>
-  </si>
-  <si>
-    <t>socken</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>klingeln</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>sorgen</t>
-  </si>
-  <si>
-    <t>ahnen</t>
-  </si>
-  <si>
-    <t>beichten</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>scheiden</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>schlampen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>russen</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>nennen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>knarren</t>
-  </si>
-  <si>
-    <t>leihen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>filmen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>regeln</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>schlagen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>sitzen</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>seufzen</t>
+    <t>merken</t>
   </si>
   <si>
     <t>dog/dog020.jpg</t>

--- a/sequences/04_retrieval_1.xlsx
+++ b/sequences/04_retrieval_1.xlsx
@@ -73,1365 +73,1365 @@
     <t>iti</t>
   </si>
   <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>schlagen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>klingeln</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>strecken</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>klauen</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>fassen</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>lenken</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>träumen</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>reiten</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>leiten</t>
+  </si>
+  <si>
+    <t>schließen</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>knurren</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>gucken</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>fliehen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>leuchten</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>stürzen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>schnellen</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>schweben</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>treffen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>blicken</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>nennen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>leiden</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>brauen</t>
+  </si>
+  <si>
+    <t>wetten</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>stoppen</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>nehmen</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>lernen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>kleben</t>
+  </si>
+  <si>
+    <t>warten</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>lieben</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>packen</t>
+  </si>
+  <si>
+    <t>plaudern</t>
+  </si>
+  <si>
+    <t>stopfen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>merken</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>meistern</t>
+  </si>
+  <si>
+    <t>kommen</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>schweigen</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>teilen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>wärmen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>stellen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>prüfen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
     <t>geben</t>
   </si>
   <si>
-    <t>schlagen</t>
-  </si>
-  <si>
-    <t>fordern</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>retten</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>sichern</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>klingeln</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>strecken</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>klettern</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>schwimmen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>klauen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>fassen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>sehen</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>reiten</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>schweben</t>
-  </si>
-  <si>
-    <t>schließen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>knurren</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>wollen</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>packen</t>
-  </si>
-  <si>
-    <t>gucken</t>
+    <t>feuern</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>eignen</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>triefen</t>
   </si>
   <si>
     <t>landen</t>
   </si>
   <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>kleben</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>nerven</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>stürzen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>wellen</t>
-  </si>
-  <si>
-    <t>schreiben</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>kämpfen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>zahlen</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>schlafen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>leuchten</t>
-  </si>
-  <si>
-    <t>blicken</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>nennen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>leiden</t>
-  </si>
-  <si>
-    <t>fangen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>schrecken</t>
-  </si>
-  <si>
-    <t>brauen</t>
-  </si>
-  <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>wirken</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>rühren</t>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>baden</t>
   </si>
   <si>
     <t>seufzen</t>
   </si>
   <si>
-    <t>warten</t>
-  </si>
-  <si>
-    <t>schneiden</t>
-  </si>
-  <si>
-    <t>lieben</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>liegen</t>
-  </si>
-  <si>
-    <t>dringen</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>sprengen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>merken</t>
-  </si>
-  <si>
-    <t>buchen</t>
-  </si>
-  <si>
-    <t>meistern</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>schweigen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>treten</t>
-  </si>
-  <si>
-    <t>teilen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>brauchen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>stürmen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>wärmen</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>stellen</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>schlucken</t>
-  </si>
-  <si>
-    <t>werfen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>fischen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>bieten</t>
-  </si>
-  <si>
-    <t>feuern</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>eignen</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>streichen</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>baden</t>
-  </si>
-  <si>
-    <t>platzen</t>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
   </si>
   <si>
     <t>flower/flower007.jpg</t>
   </si>
   <si>
-    <t>none</t>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower021.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>face/face030.jpg</t>
   </si>
   <si>
     <t>dog/dog027.jpg</t>
   </si>
   <si>
-    <t>dog/dog031.jpg</t>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
   </si>
   <si>
     <t>house/house022.jpg</t>
   </si>
   <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>face/face030.jpg</t>
-  </si>
-  <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower030.jpg</t>
-  </si>
-  <si>
-    <t>face/face017.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower029.jpg</t>
-  </si>
-  <si>
-    <t>house/house013.jpg</t>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
   </si>
   <si>
     <t>flower/flower032.jpg</t>
   </si>
   <si>
-    <t>house/house006.jpg</t>
+    <t>face/face027.jpg</t>
   </si>
   <si>
     <t>house/house016.jpg</t>
   </si>
   <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>face/face012.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower021.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>house/house008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower000.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower004.jpg</t>
-  </si>
-  <si>
-    <t>face/face019.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>face/face015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower006.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower023.jpg</t>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
   </si>
   <si>
     <t>flower/flower012.jpg</t>
   </si>
   <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>house/house005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower019.jpg</t>
-  </si>
-  <si>
-    <t>face/face016.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog009.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
-  </si>
-  <si>
-    <t>house/house014.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>face/face025.jpg</t>
-  </si>
-  <si>
-    <t>house/house007.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower002.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>house/house002.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>face/face026.jpg</t>
-  </si>
-  <si>
-    <t>house/house000.jpg</t>
-  </si>
-  <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog020.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower028.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>face/face009.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog003.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog017.jpg</t>
-  </si>
-  <si>
-    <t>face/face008.jpg</t>
-  </si>
-  <si>
-    <t>face/face002.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower018.jpg</t>
-  </si>
-  <si>
-    <t>house/house017.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog025.jpg</t>
-  </si>
-  <si>
-    <t>house/house012.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower008.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower020.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
+    <t>house</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>face/face194.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog130.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog226.jpg</t>
+  </si>
+  <si>
+    <t>house/house250.jpg</t>
+  </si>
+  <si>
+    <t>face/face135.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower168.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog265.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower260.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog153.jpg</t>
+  </si>
+  <si>
+    <t>house/house205.jpg</t>
+  </si>
+  <si>
+    <t>face/face205.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower102.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog227.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog140.jpg</t>
+  </si>
+  <si>
+    <t>house/house167.jpg</t>
+  </si>
+  <si>
+    <t>face/face163.jpg</t>
+  </si>
+  <si>
+    <t>house/house226.jpg</t>
+  </si>
+  <si>
+    <t>face/face227.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog138.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower213.jpg</t>
+  </si>
+  <si>
+    <t>face/face167.jpg</t>
+  </si>
+  <si>
+    <t>face/face232.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower222.jpg</t>
+  </si>
+  <si>
+    <t>face/face176.jpg</t>
+  </si>
+  <si>
+    <t>house/house138.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog211.jpg</t>
+  </si>
+  <si>
+    <t>house/house244.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog235.jpg</t>
+  </si>
+  <si>
+    <t>house/house120.jpg</t>
+  </si>
+  <si>
+    <t>house/house183.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog192.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower099.jpg</t>
+  </si>
+  <si>
+    <t>house/house256.jpg</t>
+  </si>
+  <si>
+    <t>face/face098.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower158.jpg</t>
+  </si>
+  <si>
+    <t>face/face143.jpg</t>
+  </si>
+  <si>
+    <t>face/face246.jpg</t>
+  </si>
+  <si>
+    <t>house/house242.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog243.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower101.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower226.jpg</t>
+  </si>
+  <si>
+    <t>face/face224.jpg</t>
+  </si>
+  <si>
+    <t>face/face139.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog193.jpg</t>
+  </si>
+  <si>
+    <t>house/house130.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog141.jpg</t>
+  </si>
+  <si>
+    <t>house/house113.jpg</t>
+  </si>
+  <si>
+    <t>house/house139.jpg</t>
+  </si>
+  <si>
+    <t>face/face165.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower149.jpg</t>
+  </si>
+  <si>
+    <t>face/face255.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog167.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog208.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower234.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower188.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower127.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog261.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower110.jpg</t>
+  </si>
+  <si>
+    <t>face/face215.jpg</t>
+  </si>
+  <si>
+    <t>face/face142.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog111.jpg</t>
+  </si>
+  <si>
+    <t>house/house212.jpg</t>
+  </si>
+  <si>
+    <t>face/face173.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower105.jpg</t>
+  </si>
+  <si>
+    <t>house/house254.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower103.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower140.jpg</t>
+  </si>
+  <si>
+    <t>face/face174.jpg</t>
+  </si>
+  <si>
+    <t>face/face113.jpg</t>
+  </si>
+  <si>
+    <t>house/house179.jpg</t>
+  </si>
+  <si>
+    <t>house/house121.jpg</t>
+  </si>
+  <si>
+    <t>house/house182.jpg</t>
+  </si>
+  <si>
+    <t>face/face105.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog214.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower109.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog161.jpg</t>
   </si>
   <si>
     <t>house/house252.jpg</t>
   </si>
   <si>
-    <t>flower/flower099.jpg</t>
-  </si>
-  <si>
-    <t>face/face135.jpg</t>
+    <t>house/house221.jpg</t>
+  </si>
+  <si>
+    <t>face/face249.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog246.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog253.jpg</t>
+  </si>
+  <si>
+    <t>face/face103.jpg</t>
+  </si>
+  <si>
+    <t>house/house150.jpg</t>
+  </si>
+  <si>
+    <t>face/face183.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog186.jpg</t>
   </si>
   <si>
     <t>flower/flower211.jpg</t>
   </si>
   <si>
+    <t>dog/dog215.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower176.jpg</t>
+  </si>
+  <si>
+    <t>house/house133.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower164.jpg</t>
+  </si>
+  <si>
+    <t>face/face109.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog183.jpg</t>
+  </si>
+  <si>
+    <t>face/face182.jpg</t>
+  </si>
+  <si>
+    <t>face/face209.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower233.jpg</t>
+  </si>
+  <si>
+    <t>house/house155.jpg</t>
+  </si>
+  <si>
+    <t>house/house160.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog231.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower197.jpg</t>
+  </si>
+  <si>
+    <t>house/house102.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower171.jpg</t>
+  </si>
+  <si>
+    <t>house/house149.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower257.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower205.jpg</t>
+  </si>
+  <si>
+    <t>house/house232.jpg</t>
+  </si>
+  <si>
+    <t>face/face132.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower220.jpg</t>
+  </si>
+  <si>
     <t>house/house237.jpg</t>
   </si>
   <si>
-    <t>house/house182.jpg</t>
+    <t>face/face213.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog184.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower118.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower145.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower236.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower107.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower261.jpg</t>
+  </si>
+  <si>
+    <t>house/house174.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog126.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog097.jpg</t>
+  </si>
+  <si>
+    <t>house/house136.jpg</t>
   </si>
   <si>
     <t>dog/dog120.jpg</t>
   </si>
   <si>
-    <t>flower/flower197.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower188.jpg</t>
-  </si>
-  <si>
-    <t>face/face165.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog235.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog214.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog261.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog140.jpg</t>
-  </si>
-  <si>
     <t>house/house151.jpg</t>
   </si>
   <si>
-    <t>dog/dog192.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog161.jpg</t>
-  </si>
-  <si>
-    <t>house/house138.jpg</t>
+    <t>house/house135.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog176.jpg</t>
+  </si>
+  <si>
+    <t>face/face138.jpg</t>
   </si>
   <si>
     <t>face/face220.jpg</t>
   </si>
   <si>
-    <t>dog/dog184.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog215.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower213.jpg</t>
+    <t>face/face115.jpg</t>
   </si>
   <si>
     <t>dog/dog149.jpg</t>
   </si>
   <si>
-    <t>face/face105.jpg</t>
-  </si>
-  <si>
-    <t>face/face194.jpg</t>
-  </si>
-  <si>
-    <t>house/house167.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower168.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower107.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog167.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower171.jpg</t>
-  </si>
-  <si>
-    <t>house/house130.jpg</t>
-  </si>
-  <si>
-    <t>face/face142.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower145.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog138.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog183.jpg</t>
-  </si>
-  <si>
-    <t>face/face143.jpg</t>
-  </si>
-  <si>
-    <t>face/face224.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower220.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog227.jpg</t>
-  </si>
-  <si>
-    <t>house/house133.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower101.jpg</t>
-  </si>
-  <si>
-    <t>house/house250.jpg</t>
-  </si>
-  <si>
-    <t>face/face163.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower226.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower102.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower234.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower205.jpg</t>
-  </si>
-  <si>
-    <t>face/face113.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog186.jpg</t>
-  </si>
-  <si>
-    <t>face/face115.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower127.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower149.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog111.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog153.jpg</t>
-  </si>
-  <si>
-    <t>face/face205.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower105.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog208.jpg</t>
-  </si>
-  <si>
-    <t>house/house160.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog141.jpg</t>
-  </si>
-  <si>
-    <t>house/house254.jpg</t>
-  </si>
-  <si>
-    <t>house/house150.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower236.jpg</t>
-  </si>
-  <si>
-    <t>house/house135.jpg</t>
-  </si>
-  <si>
-    <t>face/face103.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog193.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog211.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower257.jpg</t>
-  </si>
-  <si>
-    <t>house/house183.jpg</t>
-  </si>
-  <si>
-    <t>house/house226.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog246.jpg</t>
-  </si>
-  <si>
-    <t>face/face227.jpg</t>
-  </si>
-  <si>
-    <t>house/house121.jpg</t>
-  </si>
-  <si>
-    <t>face/face167.jpg</t>
-  </si>
-  <si>
-    <t>house/house149.jpg</t>
-  </si>
-  <si>
-    <t>face/face098.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog243.jpg</t>
-  </si>
-  <si>
-    <t>house/house155.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower118.jpg</t>
-  </si>
-  <si>
-    <t>house/house212.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower164.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower176.jpg</t>
-  </si>
-  <si>
-    <t>house/house221.jpg</t>
-  </si>
-  <si>
-    <t>face/face183.jpg</t>
-  </si>
-  <si>
-    <t>face/face132.jpg</t>
-  </si>
-  <si>
-    <t>face/face232.jpg</t>
-  </si>
-  <si>
-    <t>face/face246.jpg</t>
-  </si>
-  <si>
-    <t>face/face176.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower233.jpg</t>
-  </si>
-  <si>
-    <t>face/face138.jpg</t>
-  </si>
-  <si>
     <t>dog/dog129.jpg</t>
   </si>
   <si>
-    <t>dog/dog126.jpg</t>
-  </si>
-  <si>
-    <t>face/face182.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower261.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog176.jpg</t>
-  </si>
-  <si>
-    <t>house/house102.jpg</t>
-  </si>
-  <si>
-    <t>house/house120.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog231.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower222.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog265.jpg</t>
-  </si>
-  <si>
-    <t>house/house256.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog226.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog253.jpg</t>
-  </si>
-  <si>
-    <t>face/face249.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower140.jpg</t>
-  </si>
-  <si>
-    <t>house/house113.jpg</t>
-  </si>
-  <si>
-    <t>house/house242.jpg</t>
-  </si>
-  <si>
-    <t>face/face174.jpg</t>
-  </si>
-  <si>
-    <t>face/face173.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower103.jpg</t>
-  </si>
-  <si>
-    <t>house/house205.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower109.jpg</t>
-  </si>
-  <si>
-    <t>house/house174.jpg</t>
-  </si>
-  <si>
-    <t>face/face109.jpg</t>
-  </si>
-  <si>
-    <t>house/house232.jpg</t>
-  </si>
-  <si>
-    <t>face/face213.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower158.jpg</t>
-  </si>
-  <si>
-    <t>face/face255.jpg</t>
-  </si>
-  <si>
-    <t>house/house136.jpg</t>
-  </si>
-  <si>
-    <t>face/face139.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower110.jpg</t>
-  </si>
-  <si>
-    <t>house/house244.jpg</t>
-  </si>
-  <si>
-    <t>face/face209.jpg</t>
-  </si>
-  <si>
-    <t>house/house179.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower260.jpg</t>
-  </si>
-  <si>
-    <t>face/face215.jpg</t>
-  </si>
-  <si>
-    <t>house/house139.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog130.jpg</t>
-  </si>
-  <si>
     <t>other/old/uncued</t>
   </si>
   <si>
@@ -1441,10 +1441,10 @@
     <t>other/new/uncued</t>
   </si>
   <si>
+    <t>correct/old/cued</t>
+  </si>
+  <si>
     <t>correct/old/uncued</t>
-  </si>
-  <si>
-    <t>correct/old/cued</t>
   </si>
 </sst>
 </file>
@@ -1887,10 +1887,10 @@
         <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="H2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="I2" t="s">
         <v>344</v>
@@ -1899,7 +1899,7 @@
         <v>342</v>
       </c>
       <c r="K2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="L2" t="s">
         <v>472</v>
@@ -1908,10 +1908,10 @@
         <v>211</v>
       </c>
       <c r="N2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O2" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="P2" t="s">
         <v>473</v>
@@ -1993,7 +1993,7 @@
         <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>213</v>
       </c>
       <c r="G4" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="H4" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="I4" t="s">
         <v>345</v>
       </c>
       <c r="J4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K4" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="L4" t="s">
         <v>472</v>
@@ -2026,10 +2026,10 @@
         <v>213</v>
       </c>
       <c r="N4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O4" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="P4" t="s">
         <v>473</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>214</v>
       </c>
       <c r="G5" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="H5" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="I5" t="s">
         <v>346</v>
@@ -2076,7 +2076,7 @@
         <v>343</v>
       </c>
       <c r="K5" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="L5" t="s">
         <v>473</v>
@@ -2094,7 +2094,7 @@
         <v>474</v>
       </c>
       <c r="Q5" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="R5" t="s">
         <v>472</v>
@@ -2117,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H6" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="I6" t="s">
         <v>347</v>
@@ -2135,7 +2135,7 @@
         <v>340</v>
       </c>
       <c r="K6" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="L6" t="s">
         <v>472</v>
@@ -2147,7 +2147,7 @@
         <v>475</v>
       </c>
       <c r="O6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P6" t="s">
         <v>473</v>
@@ -2170,7 +2170,7 @@
         <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>216</v>
       </c>
       <c r="G7" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="H7" t="s">
-        <v>263</v>
+        <v>325</v>
       </c>
       <c r="I7" t="s">
         <v>348</v>
@@ -2200,13 +2200,13 @@
         <v>474</v>
       </c>
       <c r="M7" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="N7" t="s">
         <v>473</v>
       </c>
       <c r="O7" t="s">
-        <v>263</v>
+        <v>325</v>
       </c>
       <c r="P7" t="s">
         <v>472</v>
@@ -2215,7 +2215,7 @@
         <v>216</v>
       </c>
       <c r="R7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S7">
         <v>1.022614513672437</v>
@@ -2241,16 +2241,16 @@
         <v>217</v>
       </c>
       <c r="G8" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H8" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="I8" t="s">
         <v>349</v>
       </c>
       <c r="J8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K8" t="s">
         <v>349</v>
@@ -2259,13 +2259,13 @@
         <v>474</v>
       </c>
       <c r="M8" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="N8" t="s">
         <v>472</v>
       </c>
       <c r="O8" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="P8" t="s">
         <v>473</v>
@@ -2274,7 +2274,7 @@
         <v>217</v>
       </c>
       <c r="R8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S8">
         <v>1.274244058249935</v>
@@ -2294,22 +2294,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>218</v>
       </c>
       <c r="G9" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="H9" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="I9" t="s">
         <v>350</v>
       </c>
       <c r="J9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K9" t="s">
         <v>218</v>
@@ -2318,7 +2318,7 @@
         <v>475</v>
       </c>
       <c r="M9" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="N9" t="s">
         <v>473</v>
@@ -2330,7 +2330,7 @@
         <v>474</v>
       </c>
       <c r="Q9" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="R9" t="s">
         <v>472</v>
@@ -2406,7 +2406,7 @@
         <v>219</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>219</v>
       </c>
       <c r="G11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H11" t="s">
-        <v>330</v>
+        <v>253</v>
       </c>
       <c r="I11" t="s">
         <v>351</v>
       </c>
       <c r="J11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K11" t="s">
-        <v>330</v>
+        <v>253</v>
       </c>
       <c r="L11" t="s">
         <v>472</v>
@@ -2439,10 +2439,10 @@
         <v>219</v>
       </c>
       <c r="N11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P11" t="s">
         <v>473</v>
@@ -2524,7 +2524,7 @@
         <v>220</v>
       </c>
       <c r="C13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>220</v>
       </c>
       <c r="G13" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H13" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="I13" t="s">
         <v>352</v>
       </c>
       <c r="J13" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K13" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="L13" t="s">
         <v>473</v>
@@ -2557,7 +2557,7 @@
         <v>220</v>
       </c>
       <c r="N13" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O13" t="s">
         <v>352</v>
@@ -2566,7 +2566,7 @@
         <v>474</v>
       </c>
       <c r="Q13" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="R13" t="s">
         <v>472</v>
@@ -2583,7 +2583,7 @@
         <v>221</v>
       </c>
       <c r="C14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2595,19 +2595,19 @@
         <v>221</v>
       </c>
       <c r="G14" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="H14" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I14" t="s">
         <v>353</v>
       </c>
       <c r="J14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K14" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L14" t="s">
         <v>472</v>
@@ -2622,10 +2622,10 @@
         <v>221</v>
       </c>
       <c r="P14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q14" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="R14" t="s">
         <v>473</v>
@@ -2642,7 +2642,7 @@
         <v>222</v>
       </c>
       <c r="C15" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2654,16 +2654,16 @@
         <v>222</v>
       </c>
       <c r="G15" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="H15" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="I15" t="s">
         <v>354</v>
       </c>
       <c r="J15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K15" t="s">
         <v>354</v>
@@ -2675,16 +2675,16 @@
         <v>222</v>
       </c>
       <c r="N15" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O15" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="P15" t="s">
         <v>473</v>
       </c>
       <c r="Q15" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="R15" t="s">
         <v>472</v>
@@ -2701,22 +2701,22 @@
         <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
         <v>223</v>
       </c>
       <c r="G16" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="H16" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="I16" t="s">
         <v>355</v>
@@ -2725,7 +2725,7 @@
         <v>341</v>
       </c>
       <c r="K16" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="L16" t="s">
         <v>472</v>
@@ -2743,7 +2743,7 @@
         <v>476</v>
       </c>
       <c r="Q16" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="R16" t="s">
         <v>473</v>
@@ -2760,7 +2760,7 @@
         <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2772,25 +2772,25 @@
         <v>224</v>
       </c>
       <c r="G17" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="H17" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="I17" t="s">
         <v>356</v>
       </c>
       <c r="J17" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K17" t="s">
         <v>224</v>
       </c>
       <c r="L17" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M17" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="N17" t="s">
         <v>473</v>
@@ -2802,7 +2802,7 @@
         <v>474</v>
       </c>
       <c r="Q17" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="R17" t="s">
         <v>472</v>
@@ -2878,7 +2878,7 @@
         <v>225</v>
       </c>
       <c r="C19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2890,19 +2890,19 @@
         <v>225</v>
       </c>
       <c r="G19" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="H19" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="I19" t="s">
         <v>357</v>
       </c>
       <c r="J19" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K19" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s">
         <v>473</v>
@@ -2911,10 +2911,10 @@
         <v>225</v>
       </c>
       <c r="N19" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O19" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="P19" t="s">
         <v>472</v>
@@ -2949,19 +2949,19 @@
         <v>226</v>
       </c>
       <c r="G20" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="H20" t="s">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="I20" t="s">
         <v>358</v>
       </c>
       <c r="J20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K20" t="s">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="L20" t="s">
         <v>472</v>
@@ -2976,10 +2976,10 @@
         <v>226</v>
       </c>
       <c r="P20" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q20" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="R20" t="s">
         <v>473</v>
@@ -3002,22 +3002,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>227</v>
       </c>
       <c r="G21" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="H21" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="I21" t="s">
         <v>359</v>
       </c>
       <c r="J21" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K21" t="s">
         <v>227</v>
@@ -3026,7 +3026,7 @@
         <v>476</v>
       </c>
       <c r="M21" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="N21" t="s">
         <v>472</v>
@@ -3038,7 +3038,7 @@
         <v>474</v>
       </c>
       <c r="Q21" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="R21" t="s">
         <v>473</v>
@@ -3055,7 +3055,7 @@
         <v>228</v>
       </c>
       <c r="C22" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -3067,19 +3067,19 @@
         <v>228</v>
       </c>
       <c r="G22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H22" t="s">
-        <v>236</v>
+        <v>324</v>
       </c>
       <c r="I22" t="s">
         <v>360</v>
       </c>
       <c r="J22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K22" t="s">
-        <v>236</v>
+        <v>324</v>
       </c>
       <c r="L22" t="s">
         <v>472</v>
@@ -3094,10 +3094,10 @@
         <v>228</v>
       </c>
       <c r="P22" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R22" t="s">
         <v>473</v>
@@ -3179,16 +3179,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="H24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I24" t="s">
         <v>361</v>
@@ -3197,7 +3197,7 @@
         <v>342</v>
       </c>
       <c r="K24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L24" t="s">
         <v>472</v>
@@ -3209,7 +3209,7 @@
         <v>476</v>
       </c>
       <c r="O24" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="P24" t="s">
         <v>473</v>
@@ -3303,10 +3303,10 @@
         <v>230</v>
       </c>
       <c r="G26" t="s">
-        <v>216</v>
+        <v>334</v>
       </c>
       <c r="H26" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="I26" t="s">
         <v>362</v>
@@ -3315,7 +3315,7 @@
         <v>343</v>
       </c>
       <c r="K26" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s">
         <v>472</v>
@@ -3324,7 +3324,7 @@
         <v>230</v>
       </c>
       <c r="N26" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O26" t="s">
         <v>362</v>
@@ -3333,7 +3333,7 @@
         <v>474</v>
       </c>
       <c r="Q26" t="s">
-        <v>216</v>
+        <v>334</v>
       </c>
       <c r="R26" t="s">
         <v>473</v>
@@ -3362,10 +3362,10 @@
         <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="H27" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I27" t="s">
         <v>363</v>
@@ -3380,7 +3380,7 @@
         <v>474</v>
       </c>
       <c r="M27" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="N27" t="s">
         <v>473</v>
@@ -3389,10 +3389,10 @@
         <v>231</v>
       </c>
       <c r="P27" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q27" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="R27" t="s">
         <v>472</v>
@@ -3409,7 +3409,7 @@
         <v>232</v>
       </c>
       <c r="C28" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -3421,16 +3421,16 @@
         <v>232</v>
       </c>
       <c r="G28" t="s">
-        <v>243</v>
+        <v>337</v>
       </c>
       <c r="H28" t="s">
-        <v>336</v>
+        <v>269</v>
       </c>
       <c r="I28" t="s">
         <v>364</v>
       </c>
       <c r="J28" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K28" t="s">
         <v>364</v>
@@ -3439,13 +3439,13 @@
         <v>474</v>
       </c>
       <c r="M28" t="s">
-        <v>243</v>
+        <v>337</v>
       </c>
       <c r="N28" t="s">
         <v>473</v>
       </c>
       <c r="O28" t="s">
-        <v>336</v>
+        <v>269</v>
       </c>
       <c r="P28" t="s">
         <v>472</v>
@@ -3454,7 +3454,7 @@
         <v>232</v>
       </c>
       <c r="R28" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S28">
         <v>1.089683480634549</v>
@@ -3468,7 +3468,7 @@
         <v>233</v>
       </c>
       <c r="C29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3480,31 +3480,31 @@
         <v>233</v>
       </c>
       <c r="G29" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="H29" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="I29" t="s">
         <v>365</v>
       </c>
       <c r="J29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K29" t="s">
         <v>233</v>
       </c>
       <c r="L29" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M29" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="N29" t="s">
         <v>472</v>
       </c>
       <c r="O29" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="P29" t="s">
         <v>473</v>
@@ -3533,16 +3533,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>234</v>
       </c>
       <c r="G30" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="H30" t="s">
-        <v>337</v>
+        <v>240</v>
       </c>
       <c r="I30" t="s">
         <v>366</v>
@@ -3551,7 +3551,7 @@
         <v>341</v>
       </c>
       <c r="K30" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s">
         <v>473</v>
@@ -3569,7 +3569,7 @@
         <v>475</v>
       </c>
       <c r="Q30" t="s">
-        <v>337</v>
+        <v>240</v>
       </c>
       <c r="R30" t="s">
         <v>472</v>
@@ -3586,7 +3586,7 @@
         <v>235</v>
       </c>
       <c r="C31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3598,22 +3598,22 @@
         <v>235</v>
       </c>
       <c r="G31" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H31" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="I31" t="s">
         <v>367</v>
       </c>
       <c r="J31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K31" t="s">
         <v>235</v>
       </c>
       <c r="L31" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M31" t="s">
         <v>367</v>
@@ -3622,13 +3622,13 @@
         <v>474</v>
       </c>
       <c r="O31" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="P31" t="s">
         <v>472</v>
       </c>
       <c r="Q31" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="R31" t="s">
         <v>473</v>
@@ -3716,16 +3716,16 @@
         <v>236</v>
       </c>
       <c r="G33" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="H33" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I33" t="s">
         <v>368</v>
       </c>
       <c r="J33" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K33" t="s">
         <v>368</v>
@@ -3734,13 +3734,13 @@
         <v>474</v>
       </c>
       <c r="M33" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N33" t="s">
         <v>472</v>
       </c>
       <c r="O33" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="P33" t="s">
         <v>473</v>
@@ -3749,7 +3749,7 @@
         <v>236</v>
       </c>
       <c r="R33" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S33">
         <v>1.187214842532858</v>
@@ -3881,31 +3881,31 @@
         <v>237</v>
       </c>
       <c r="C36" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
         <v>237</v>
       </c>
       <c r="G36" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="H36" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="I36" t="s">
         <v>369</v>
       </c>
       <c r="J36" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K36" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s">
         <v>472</v>
@@ -3923,7 +3923,7 @@
         <v>476</v>
       </c>
       <c r="Q36" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="R36" t="s">
         <v>473</v>
@@ -4005,16 +4005,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>238</v>
       </c>
       <c r="G38" t="s">
-        <v>307</v>
+        <v>216</v>
       </c>
       <c r="H38" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="I38" t="s">
         <v>370</v>
@@ -4035,13 +4035,13 @@
         <v>475</v>
       </c>
       <c r="O38" t="s">
-        <v>307</v>
+        <v>216</v>
       </c>
       <c r="P38" t="s">
         <v>473</v>
       </c>
       <c r="Q38" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="R38" t="s">
         <v>472</v>
@@ -4058,7 +4058,7 @@
         <v>239</v>
       </c>
       <c r="C39" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -4070,25 +4070,25 @@
         <v>239</v>
       </c>
       <c r="G39" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H39" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I39" t="s">
         <v>371</v>
       </c>
       <c r="J39" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K39" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s">
         <v>473</v>
       </c>
       <c r="M39" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N39" t="s">
         <v>472</v>
@@ -4103,7 +4103,7 @@
         <v>239</v>
       </c>
       <c r="R39" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S39">
         <v>1.09665382277142</v>
@@ -4176,7 +4176,7 @@
         <v>240</v>
       </c>
       <c r="C41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>240</v>
       </c>
       <c r="G41" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="H41" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="I41" t="s">
         <v>372</v>
       </c>
       <c r="J41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K41" t="s">
         <v>372</v>
@@ -4206,13 +4206,13 @@
         <v>474</v>
       </c>
       <c r="M41" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="N41" t="s">
         <v>472</v>
       </c>
       <c r="O41" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="P41" t="s">
         <v>473</v>
@@ -4221,7 +4221,7 @@
         <v>240</v>
       </c>
       <c r="R41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S41">
         <v>1.048295017642017</v>
@@ -4235,7 +4235,7 @@
         <v>241</v>
       </c>
       <c r="C42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -4247,10 +4247,10 @@
         <v>241</v>
       </c>
       <c r="G42" t="s">
-        <v>317</v>
+        <v>234</v>
       </c>
       <c r="H42" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="I42" t="s">
         <v>373</v>
@@ -4265,13 +4265,13 @@
         <v>474</v>
       </c>
       <c r="M42" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="N42" t="s">
         <v>472</v>
       </c>
       <c r="O42" t="s">
-        <v>317</v>
+        <v>234</v>
       </c>
       <c r="P42" t="s">
         <v>473</v>
@@ -4280,7 +4280,7 @@
         <v>241</v>
       </c>
       <c r="R42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S42">
         <v>1.179387758780652</v>
@@ -4294,28 +4294,28 @@
         <v>242</v>
       </c>
       <c r="C43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="s">
         <v>242</v>
       </c>
       <c r="G43" t="s">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="H43" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="I43" t="s">
         <v>374</v>
       </c>
       <c r="J43" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K43" t="s">
         <v>374</v>
@@ -4324,7 +4324,7 @@
         <v>474</v>
       </c>
       <c r="M43" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="N43" t="s">
         <v>472</v>
@@ -4336,7 +4336,7 @@
         <v>476</v>
       </c>
       <c r="Q43" t="s">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="R43" t="s">
         <v>473</v>
@@ -4353,7 +4353,7 @@
         <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4365,25 +4365,25 @@
         <v>243</v>
       </c>
       <c r="G44" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="H44" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="I44" t="s">
         <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K44" t="s">
         <v>243</v>
       </c>
       <c r="L44" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M44" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="N44" t="s">
         <v>472</v>
@@ -4395,7 +4395,7 @@
         <v>474</v>
       </c>
       <c r="Q44" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="R44" t="s">
         <v>473</v>
@@ -4412,7 +4412,7 @@
         <v>244</v>
       </c>
       <c r="C45" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4424,10 +4424,10 @@
         <v>244</v>
       </c>
       <c r="G45" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="H45" t="s">
-        <v>216</v>
+        <v>334</v>
       </c>
       <c r="I45" t="s">
         <v>376</v>
@@ -4436,7 +4436,7 @@
         <v>340</v>
       </c>
       <c r="K45" t="s">
-        <v>216</v>
+        <v>334</v>
       </c>
       <c r="L45" t="s">
         <v>472</v>
@@ -4451,10 +4451,10 @@
         <v>244</v>
       </c>
       <c r="P45" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q45" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="R45" t="s">
         <v>473</v>
@@ -4536,22 +4536,22 @@
         <v>0</v>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
         <v>245</v>
       </c>
       <c r="G47" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="H47" t="s">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="I47" t="s">
         <v>377</v>
       </c>
       <c r="J47" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K47" t="s">
         <v>245</v>
@@ -4560,7 +4560,7 @@
         <v>476</v>
       </c>
       <c r="M47" t="s">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="N47" t="s">
         <v>472</v>
@@ -4572,7 +4572,7 @@
         <v>474</v>
       </c>
       <c r="Q47" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="R47" t="s">
         <v>473</v>
@@ -4589,7 +4589,7 @@
         <v>246</v>
       </c>
       <c r="C48" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4601,10 +4601,10 @@
         <v>246</v>
       </c>
       <c r="G48" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H48" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="I48" t="s">
         <v>378</v>
@@ -4622,16 +4622,16 @@
         <v>246</v>
       </c>
       <c r="N48" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O48" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="P48" t="s">
         <v>472</v>
       </c>
       <c r="Q48" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R48" t="s">
         <v>473</v>
@@ -4707,31 +4707,31 @@
         <v>247</v>
       </c>
       <c r="C50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>247</v>
       </c>
       <c r="G50" t="s">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="H50" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="I50" t="s">
         <v>379</v>
       </c>
       <c r="J50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K50" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="L50" t="s">
         <v>472</v>
@@ -4749,7 +4749,7 @@
         <v>475</v>
       </c>
       <c r="Q50" t="s">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="R50" t="s">
         <v>473</v>
@@ -4766,7 +4766,7 @@
         <v>248</v>
       </c>
       <c r="C51" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -4778,25 +4778,25 @@
         <v>248</v>
       </c>
       <c r="G51" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="H51" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="I51" t="s">
         <v>380</v>
       </c>
       <c r="J51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K51" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="L51" t="s">
         <v>472</v>
       </c>
       <c r="M51" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="N51" t="s">
         <v>473</v>
@@ -4811,7 +4811,7 @@
         <v>248</v>
       </c>
       <c r="R51" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S51">
         <v>1.206705046923679</v>
@@ -4825,7 +4825,7 @@
         <v>249</v>
       </c>
       <c r="C52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -4837,10 +4837,10 @@
         <v>249</v>
       </c>
       <c r="G52" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="H52" t="s">
-        <v>228</v>
+        <v>293</v>
       </c>
       <c r="I52" t="s">
         <v>381</v>
@@ -4852,7 +4852,7 @@
         <v>249</v>
       </c>
       <c r="L52" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M52" t="s">
         <v>381</v>
@@ -4861,13 +4861,13 @@
         <v>474</v>
       </c>
       <c r="O52" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="P52" t="s">
         <v>473</v>
       </c>
       <c r="Q52" t="s">
-        <v>228</v>
+        <v>293</v>
       </c>
       <c r="R52" t="s">
         <v>472</v>
@@ -4884,37 +4884,37 @@
         <v>250</v>
       </c>
       <c r="C53" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>250</v>
       </c>
       <c r="G53" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H53" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="I53" t="s">
         <v>382</v>
       </c>
       <c r="J53" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K53" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="L53" t="s">
         <v>472</v>
       </c>
       <c r="M53" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N53" t="s">
         <v>473</v>
@@ -5014,22 +5014,22 @@
         <v>251</v>
       </c>
       <c r="G55" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="H55" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I55" t="s">
         <v>383</v>
       </c>
       <c r="J55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K55" t="s">
         <v>251</v>
       </c>
       <c r="L55" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M55" t="s">
         <v>383</v>
@@ -5038,13 +5038,13 @@
         <v>474</v>
       </c>
       <c r="O55" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="P55" t="s">
         <v>473</v>
       </c>
       <c r="Q55" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R55" t="s">
         <v>472</v>
@@ -5061,7 +5061,7 @@
         <v>252</v>
       </c>
       <c r="C56" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -5073,16 +5073,16 @@
         <v>252</v>
       </c>
       <c r="G56" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="H56" t="s">
-        <v>338</v>
+        <v>216</v>
       </c>
       <c r="I56" t="s">
         <v>384</v>
       </c>
       <c r="J56" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K56" t="s">
         <v>384</v>
@@ -5091,7 +5091,7 @@
         <v>474</v>
       </c>
       <c r="M56" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="N56" t="s">
         <v>473</v>
@@ -5100,10 +5100,10 @@
         <v>252</v>
       </c>
       <c r="P56" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q56" t="s">
-        <v>338</v>
+        <v>216</v>
       </c>
       <c r="R56" t="s">
         <v>472</v>
@@ -5132,10 +5132,10 @@
         <v>253</v>
       </c>
       <c r="G57" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="H57" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="I57" t="s">
         <v>385</v>
@@ -5150,7 +5150,7 @@
         <v>474</v>
       </c>
       <c r="M57" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="N57" t="s">
         <v>473</v>
@@ -5159,10 +5159,10 @@
         <v>253</v>
       </c>
       <c r="P57" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q57" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="R57" t="s">
         <v>472</v>
@@ -5238,7 +5238,7 @@
         <v>254</v>
       </c>
       <c r="C59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -5250,25 +5250,25 @@
         <v>254</v>
       </c>
       <c r="G59" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="H59" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="I59" t="s">
         <v>386</v>
       </c>
       <c r="J59" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K59" t="s">
         <v>254</v>
       </c>
       <c r="L59" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M59" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="N59" t="s">
         <v>472</v>
@@ -5280,7 +5280,7 @@
         <v>474</v>
       </c>
       <c r="Q59" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="R59" t="s">
         <v>473</v>
@@ -5356,7 +5356,7 @@
         <v>255</v>
       </c>
       <c r="C61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -5368,16 +5368,16 @@
         <v>255</v>
       </c>
       <c r="G61" t="s">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="H61" t="s">
-        <v>335</v>
+        <v>246</v>
       </c>
       <c r="I61" t="s">
         <v>387</v>
       </c>
       <c r="J61" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K61" t="s">
         <v>387</v>
@@ -5386,7 +5386,7 @@
         <v>474</v>
       </c>
       <c r="M61" t="s">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="N61" t="s">
         <v>473</v>
@@ -5395,10 +5395,10 @@
         <v>255</v>
       </c>
       <c r="P61" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q61" t="s">
-        <v>335</v>
+        <v>246</v>
       </c>
       <c r="R61" t="s">
         <v>472</v>
@@ -5415,22 +5415,22 @@
         <v>256</v>
       </c>
       <c r="C62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>256</v>
       </c>
       <c r="G62" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="H62" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="I62" t="s">
         <v>388</v>
@@ -5439,7 +5439,7 @@
         <v>340</v>
       </c>
       <c r="K62" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="L62" t="s">
         <v>472</v>
@@ -5451,7 +5451,7 @@
         <v>474</v>
       </c>
       <c r="O62" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="P62" t="s">
         <v>473</v>
@@ -5533,7 +5533,7 @@
         <v>257</v>
       </c>
       <c r="C64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -5545,19 +5545,19 @@
         <v>257</v>
       </c>
       <c r="G64" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="H64" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="I64" t="s">
         <v>389</v>
       </c>
       <c r="J64" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K64" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="L64" t="s">
         <v>473</v>
@@ -5572,10 +5572,10 @@
         <v>257</v>
       </c>
       <c r="P64" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q64" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="R64" t="s">
         <v>472</v>
@@ -5598,16 +5598,16 @@
         <v>0</v>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="s">
         <v>258</v>
       </c>
       <c r="G65" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="H65" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="I65" t="s">
         <v>390</v>
@@ -5616,13 +5616,13 @@
         <v>340</v>
       </c>
       <c r="K65" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="L65" t="s">
         <v>472</v>
       </c>
       <c r="M65" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="N65" t="s">
         <v>473</v>
@@ -5651,28 +5651,28 @@
         <v>259</v>
       </c>
       <c r="C66" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>259</v>
       </c>
       <c r="G66" t="s">
+        <v>268</v>
+      </c>
+      <c r="H66" t="s">
         <v>257</v>
-      </c>
-      <c r="H66" t="s">
-        <v>321</v>
       </c>
       <c r="I66" t="s">
         <v>391</v>
       </c>
       <c r="J66" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K66" t="s">
         <v>391</v>
@@ -5681,7 +5681,7 @@
         <v>474</v>
       </c>
       <c r="M66" t="s">
-        <v>321</v>
+        <v>257</v>
       </c>
       <c r="N66" t="s">
         <v>472</v>
@@ -5693,7 +5693,7 @@
         <v>475</v>
       </c>
       <c r="Q66" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="R66" t="s">
         <v>473</v>
@@ -5769,7 +5769,7 @@
         <v>260</v>
       </c>
       <c r="C68" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -5781,22 +5781,22 @@
         <v>260</v>
       </c>
       <c r="G68" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H68" t="s">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="I68" t="s">
         <v>392</v>
       </c>
       <c r="J68" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K68" t="s">
         <v>260</v>
       </c>
       <c r="L68" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M68" t="s">
         <v>392</v>
@@ -5805,13 +5805,13 @@
         <v>474</v>
       </c>
       <c r="O68" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="P68" t="s">
         <v>473</v>
       </c>
       <c r="Q68" t="s">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="R68" t="s">
         <v>472</v>
@@ -5828,7 +5828,7 @@
         <v>261</v>
       </c>
       <c r="C69" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -5840,22 +5840,22 @@
         <v>261</v>
       </c>
       <c r="G69" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="H69" t="s">
-        <v>229</v>
+        <v>303</v>
       </c>
       <c r="I69" t="s">
         <v>393</v>
       </c>
       <c r="J69" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K69" t="s">
         <v>261</v>
       </c>
       <c r="L69" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M69" t="s">
         <v>393</v>
@@ -5864,13 +5864,13 @@
         <v>474</v>
       </c>
       <c r="O69" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="P69" t="s">
         <v>473</v>
       </c>
       <c r="Q69" t="s">
-        <v>229</v>
+        <v>303</v>
       </c>
       <c r="R69" t="s">
         <v>472</v>
@@ -5893,25 +5893,25 @@
         <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="s">
         <v>262</v>
       </c>
       <c r="G70" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="H70" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I70" t="s">
         <v>394</v>
       </c>
       <c r="J70" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K70" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="L70" t="s">
         <v>473</v>
@@ -5929,7 +5929,7 @@
         <v>476</v>
       </c>
       <c r="Q70" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="R70" t="s">
         <v>472</v>
@@ -5952,22 +5952,22 @@
         <v>0</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>263</v>
       </c>
       <c r="G71" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="H71" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="I71" t="s">
         <v>395</v>
       </c>
       <c r="J71" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K71" t="s">
         <v>395</v>
@@ -5982,13 +5982,13 @@
         <v>475</v>
       </c>
       <c r="O71" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="P71" t="s">
         <v>473</v>
       </c>
       <c r="Q71" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="R71" t="s">
         <v>472</v>
@@ -6017,16 +6017,16 @@
         <v>264</v>
       </c>
       <c r="G72" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="H72" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="I72" t="s">
         <v>396</v>
       </c>
       <c r="J72" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K72" t="s">
         <v>396</v>
@@ -6038,16 +6038,16 @@
         <v>264</v>
       </c>
       <c r="N72" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O72" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="P72" t="s">
         <v>472</v>
       </c>
       <c r="Q72" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="R72" t="s">
         <v>473</v>
@@ -6123,7 +6123,7 @@
         <v>265</v>
       </c>
       <c r="C74" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -6135,10 +6135,10 @@
         <v>265</v>
       </c>
       <c r="G74" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="H74" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="I74" t="s">
         <v>397</v>
@@ -6147,13 +6147,13 @@
         <v>341</v>
       </c>
       <c r="K74" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="L74" t="s">
         <v>473</v>
       </c>
       <c r="M74" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="N74" t="s">
         <v>472</v>
@@ -6162,7 +6162,7 @@
         <v>265</v>
       </c>
       <c r="P74" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q74" t="s">
         <v>397</v>
@@ -6188,16 +6188,16 @@
         <v>0</v>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="s">
         <v>266</v>
       </c>
       <c r="G75" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="H75" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="I75" t="s">
         <v>398</v>
@@ -6206,7 +6206,7 @@
         <v>341</v>
       </c>
       <c r="K75" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="L75" t="s">
         <v>473</v>
@@ -6224,7 +6224,7 @@
         <v>474</v>
       </c>
       <c r="Q75" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="R75" t="s">
         <v>472</v>
@@ -6300,31 +6300,31 @@
         <v>267</v>
       </c>
       <c r="C77" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="s">
         <v>267</v>
       </c>
       <c r="G77" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="H77" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="I77" t="s">
         <v>399</v>
       </c>
       <c r="J77" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K77" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="L77" t="s">
         <v>473</v>
@@ -6336,7 +6336,7 @@
         <v>474</v>
       </c>
       <c r="O77" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="P77" t="s">
         <v>472</v>
@@ -6359,7 +6359,7 @@
         <v>268</v>
       </c>
       <c r="C78" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -6371,31 +6371,31 @@
         <v>268</v>
       </c>
       <c r="G78" t="s">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="H78" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="I78" t="s">
         <v>400</v>
       </c>
       <c r="J78" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K78" t="s">
         <v>268</v>
       </c>
       <c r="L78" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M78" t="s">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="N78" t="s">
         <v>473</v>
       </c>
       <c r="O78" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="P78" t="s">
         <v>472</v>
@@ -6418,22 +6418,22 @@
         <v>269</v>
       </c>
       <c r="C79" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
         <v>269</v>
       </c>
       <c r="G79" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H79" t="s">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="I79" t="s">
         <v>401</v>
@@ -6442,7 +6442,7 @@
         <v>341</v>
       </c>
       <c r="K79" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L79" t="s">
         <v>473</v>
@@ -6454,7 +6454,7 @@
         <v>474</v>
       </c>
       <c r="O79" t="s">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="P79" t="s">
         <v>472</v>
@@ -6477,7 +6477,7 @@
         <v>270</v>
       </c>
       <c r="C80" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -6489,10 +6489,10 @@
         <v>270</v>
       </c>
       <c r="G80" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H80" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="I80" t="s">
         <v>402</v>
@@ -6507,13 +6507,13 @@
         <v>474</v>
       </c>
       <c r="M80" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="N80" t="s">
         <v>472</v>
       </c>
       <c r="O80" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P80" t="s">
         <v>473</v>
@@ -6522,7 +6522,7 @@
         <v>270</v>
       </c>
       <c r="R80" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S80">
         <v>1.074842774375114</v>
@@ -6536,28 +6536,28 @@
         <v>271</v>
       </c>
       <c r="C81" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="s">
         <v>271</v>
       </c>
       <c r="G81" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="H81" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="I81" t="s">
         <v>403</v>
       </c>
       <c r="J81" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K81" t="s">
         <v>271</v>
@@ -6566,7 +6566,7 @@
         <v>476</v>
       </c>
       <c r="M81" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="N81" t="s">
         <v>472</v>
@@ -6578,7 +6578,7 @@
         <v>474</v>
       </c>
       <c r="Q81" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="R81" t="s">
         <v>473</v>
@@ -6654,7 +6654,7 @@
         <v>272</v>
       </c>
       <c r="C83" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -6666,25 +6666,25 @@
         <v>272</v>
       </c>
       <c r="G83" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="H83" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="I83" t="s">
         <v>404</v>
       </c>
       <c r="J83" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K83" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="L83" t="s">
         <v>473</v>
       </c>
       <c r="M83" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="N83" t="s">
         <v>472</v>
@@ -6693,7 +6693,7 @@
         <v>272</v>
       </c>
       <c r="P83" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q83" t="s">
         <v>404</v>
@@ -6713,7 +6713,7 @@
         <v>273</v>
       </c>
       <c r="C84" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -6725,19 +6725,19 @@
         <v>273</v>
       </c>
       <c r="G84" t="s">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="H84" t="s">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="I84" t="s">
         <v>405</v>
       </c>
       <c r="J84" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K84" t="s">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="L84" t="s">
         <v>473</v>
@@ -6746,7 +6746,7 @@
         <v>273</v>
       </c>
       <c r="N84" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O84" t="s">
         <v>405</v>
@@ -6755,7 +6755,7 @@
         <v>474</v>
       </c>
       <c r="Q84" t="s">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="R84" t="s">
         <v>472</v>
@@ -6772,7 +6772,7 @@
         <v>274</v>
       </c>
       <c r="C85" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -6784,19 +6784,19 @@
         <v>274</v>
       </c>
       <c r="G85" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="H85" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="I85" t="s">
         <v>406</v>
       </c>
       <c r="J85" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K85" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="L85" t="s">
         <v>472</v>
@@ -6808,7 +6808,7 @@
         <v>474</v>
       </c>
       <c r="O85" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="P85" t="s">
         <v>473</v>
@@ -6817,7 +6817,7 @@
         <v>274</v>
       </c>
       <c r="R85" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S85">
         <v>1.015833996129629</v>
@@ -6831,37 +6831,37 @@
         <v>275</v>
       </c>
       <c r="C86" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="s">
         <v>275</v>
       </c>
       <c r="G86" t="s">
+        <v>242</v>
+      </c>
+      <c r="H86" t="s">
         <v>335</v>
-      </c>
-      <c r="H86" t="s">
-        <v>274</v>
       </c>
       <c r="I86" t="s">
         <v>407</v>
       </c>
       <c r="J86" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K86" t="s">
-        <v>274</v>
+        <v>335</v>
       </c>
       <c r="L86" t="s">
         <v>472</v>
       </c>
       <c r="M86" t="s">
-        <v>335</v>
+        <v>242</v>
       </c>
       <c r="N86" t="s">
         <v>473</v>
@@ -6949,28 +6949,28 @@
         <v>276</v>
       </c>
       <c r="C88" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="s">
         <v>276</v>
       </c>
       <c r="G88" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H88" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="I88" t="s">
         <v>408</v>
       </c>
       <c r="J88" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K88" t="s">
         <v>276</v>
@@ -6985,13 +6985,13 @@
         <v>474</v>
       </c>
       <c r="O88" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="P88" t="s">
         <v>472</v>
       </c>
       <c r="Q88" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="R88" t="s">
         <v>473</v>
@@ -7126,7 +7126,7 @@
         <v>277</v>
       </c>
       <c r="C91" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -7138,10 +7138,10 @@
         <v>277</v>
       </c>
       <c r="G91" t="s">
-        <v>314</v>
+        <v>245</v>
       </c>
       <c r="H91" t="s">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="I91" t="s">
         <v>409</v>
@@ -7150,7 +7150,7 @@
         <v>341</v>
       </c>
       <c r="K91" t="s">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="L91" t="s">
         <v>472</v>
@@ -7159,7 +7159,7 @@
         <v>277</v>
       </c>
       <c r="N91" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O91" t="s">
         <v>409</v>
@@ -7168,7 +7168,7 @@
         <v>474</v>
       </c>
       <c r="Q91" t="s">
-        <v>314</v>
+        <v>245</v>
       </c>
       <c r="R91" t="s">
         <v>473</v>
@@ -7244,7 +7244,7 @@
         <v>278</v>
       </c>
       <c r="C93" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
@@ -7256,10 +7256,10 @@
         <v>278</v>
       </c>
       <c r="G93" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="H93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I93" t="s">
         <v>410</v>
@@ -7271,7 +7271,7 @@
         <v>278</v>
       </c>
       <c r="L93" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M93" t="s">
         <v>410</v>
@@ -7280,13 +7280,13 @@
         <v>474</v>
       </c>
       <c r="O93" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="P93" t="s">
         <v>473</v>
       </c>
       <c r="Q93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R93" t="s">
         <v>472</v>
@@ -7303,7 +7303,7 @@
         <v>279</v>
       </c>
       <c r="C94" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -7315,16 +7315,16 @@
         <v>279</v>
       </c>
       <c r="G94" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="H94" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="I94" t="s">
         <v>411</v>
       </c>
       <c r="J94" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K94" t="s">
         <v>411</v>
@@ -7333,13 +7333,13 @@
         <v>474</v>
       </c>
       <c r="M94" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="N94" t="s">
         <v>472</v>
       </c>
       <c r="O94" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="P94" t="s">
         <v>473</v>
@@ -7348,7 +7348,7 @@
         <v>279</v>
       </c>
       <c r="R94" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S94">
         <v>1.187865405748797</v>
@@ -7480,7 +7480,7 @@
         <v>280</v>
       </c>
       <c r="C97" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
@@ -7492,10 +7492,10 @@
         <v>280</v>
       </c>
       <c r="G97" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="H97" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I97" t="s">
         <v>412</v>
@@ -7507,16 +7507,16 @@
         <v>280</v>
       </c>
       <c r="L97" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M97" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N97" t="s">
         <v>472</v>
       </c>
       <c r="O97" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="P97" t="s">
         <v>473</v>
@@ -7551,19 +7551,19 @@
         <v>281</v>
       </c>
       <c r="G98" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H98" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="I98" t="s">
         <v>413</v>
       </c>
       <c r="J98" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K98" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L98" t="s">
         <v>473</v>
@@ -7572,7 +7572,7 @@
         <v>281</v>
       </c>
       <c r="N98" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O98" t="s">
         <v>413</v>
@@ -7581,7 +7581,7 @@
         <v>474</v>
       </c>
       <c r="Q98" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="R98" t="s">
         <v>472</v>
@@ -7663,31 +7663,31 @@
         <v>0</v>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="s">
         <v>282</v>
       </c>
       <c r="G100" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H100" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="I100" t="s">
         <v>414</v>
       </c>
       <c r="J100" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K100" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="L100" t="s">
         <v>472</v>
       </c>
       <c r="M100" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N100" t="s">
         <v>473</v>
@@ -7775,7 +7775,7 @@
         <v>283</v>
       </c>
       <c r="C102" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -7787,19 +7787,19 @@
         <v>283</v>
       </c>
       <c r="G102" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H102" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="I102" t="s">
         <v>415</v>
       </c>
       <c r="J102" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K102" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="L102" t="s">
         <v>472</v>
@@ -7808,7 +7808,7 @@
         <v>283</v>
       </c>
       <c r="N102" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O102" t="s">
         <v>415</v>
@@ -7817,7 +7817,7 @@
         <v>474</v>
       </c>
       <c r="Q102" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R102" t="s">
         <v>473</v>
@@ -7899,16 +7899,16 @@
         <v>0</v>
       </c>
       <c r="E104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="s">
         <v>284</v>
       </c>
       <c r="G104" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="H104" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="I104" t="s">
         <v>416</v>
@@ -7923,13 +7923,13 @@
         <v>475</v>
       </c>
       <c r="M104" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="N104" t="s">
         <v>472</v>
       </c>
       <c r="O104" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="P104" t="s">
         <v>473</v>
@@ -8070,7 +8070,7 @@
         <v>285</v>
       </c>
       <c r="C107" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -8082,10 +8082,10 @@
         <v>285</v>
       </c>
       <c r="G107" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="H107" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="I107" t="s">
         <v>417</v>
@@ -8100,13 +8100,13 @@
         <v>474</v>
       </c>
       <c r="M107" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="N107" t="s">
         <v>472</v>
       </c>
       <c r="O107" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="P107" t="s">
         <v>473</v>
@@ -8115,7 +8115,7 @@
         <v>285</v>
       </c>
       <c r="R107" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S107">
         <v>1.031152039741008</v>
@@ -8306,28 +8306,28 @@
         <v>286</v>
       </c>
       <c r="C111" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
       </c>
       <c r="E111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="s">
         <v>286</v>
       </c>
       <c r="G111" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="H111" t="s">
-        <v>329</v>
+        <v>226</v>
       </c>
       <c r="I111" t="s">
         <v>418</v>
       </c>
       <c r="J111" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K111" t="s">
         <v>286</v>
@@ -8336,7 +8336,7 @@
         <v>475</v>
       </c>
       <c r="M111" t="s">
-        <v>329</v>
+        <v>226</v>
       </c>
       <c r="N111" t="s">
         <v>472</v>
@@ -8348,7 +8348,7 @@
         <v>474</v>
       </c>
       <c r="Q111" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="R111" t="s">
         <v>473</v>
@@ -8377,10 +8377,10 @@
         <v>287</v>
       </c>
       <c r="G112" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H112" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I112" t="s">
         <v>419</v>
@@ -8395,13 +8395,13 @@
         <v>474</v>
       </c>
       <c r="M112" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="N112" t="s">
         <v>472</v>
       </c>
       <c r="O112" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="P112" t="s">
         <v>473</v>
@@ -8410,7 +8410,7 @@
         <v>287</v>
       </c>
       <c r="R112" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S112">
         <v>1.162360865599093</v>
@@ -8483,7 +8483,7 @@
         <v>288</v>
       </c>
       <c r="C114" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -8495,31 +8495,31 @@
         <v>288</v>
       </c>
       <c r="G114" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H114" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="I114" t="s">
         <v>420</v>
       </c>
       <c r="J114" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K114" t="s">
         <v>288</v>
       </c>
       <c r="L114" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M114" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="N114" t="s">
         <v>472</v>
       </c>
       <c r="O114" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="P114" t="s">
         <v>473</v>
@@ -8554,31 +8554,31 @@
         <v>289</v>
       </c>
       <c r="G115" t="s">
-        <v>222</v>
+        <v>336</v>
       </c>
       <c r="H115" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="I115" t="s">
         <v>421</v>
       </c>
       <c r="J115" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K115" t="s">
         <v>289</v>
       </c>
       <c r="L115" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M115" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="N115" t="s">
         <v>472</v>
       </c>
       <c r="O115" t="s">
-        <v>222</v>
+        <v>336</v>
       </c>
       <c r="P115" t="s">
         <v>473</v>
@@ -8719,7 +8719,7 @@
         <v>290</v>
       </c>
       <c r="C118" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
@@ -8731,16 +8731,16 @@
         <v>290</v>
       </c>
       <c r="G118" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="H118" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="I118" t="s">
         <v>422</v>
       </c>
       <c r="J118" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K118" t="s">
         <v>422</v>
@@ -8749,13 +8749,13 @@
         <v>474</v>
       </c>
       <c r="M118" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N118" t="s">
         <v>472</v>
       </c>
       <c r="O118" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="P118" t="s">
         <v>473</v>
@@ -8764,7 +8764,7 @@
         <v>290</v>
       </c>
       <c r="R118" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S118">
         <v>1.018932117635581</v>
@@ -8778,7 +8778,7 @@
         <v>291</v>
       </c>
       <c r="C119" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
@@ -8790,19 +8790,19 @@
         <v>291</v>
       </c>
       <c r="G119" t="s">
-        <v>258</v>
+        <v>329</v>
       </c>
       <c r="H119" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="I119" t="s">
         <v>423</v>
       </c>
       <c r="J119" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K119" t="s">
-        <v>258</v>
+        <v>329</v>
       </c>
       <c r="L119" t="s">
         <v>473</v>
@@ -8814,7 +8814,7 @@
         <v>474</v>
       </c>
       <c r="O119" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="P119" t="s">
         <v>472</v>
@@ -8823,7 +8823,7 @@
         <v>291</v>
       </c>
       <c r="R119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S119">
         <v>1.049444237712744</v>
@@ -8837,7 +8837,7 @@
         <v>292</v>
       </c>
       <c r="C120" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>292</v>
       </c>
       <c r="G120" t="s">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c r="H120" t="s">
         <v>232</v>
@@ -8858,7 +8858,7 @@
         <v>424</v>
       </c>
       <c r="J120" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K120" t="s">
         <v>424</v>
@@ -8873,7 +8873,7 @@
         <v>472</v>
       </c>
       <c r="O120" t="s">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c r="P120" t="s">
         <v>473</v>
@@ -8882,7 +8882,7 @@
         <v>292</v>
       </c>
       <c r="R120" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S120">
         <v>1.100332265121507</v>
@@ -8896,31 +8896,31 @@
         <v>293</v>
       </c>
       <c r="C121" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="s">
         <v>293</v>
       </c>
       <c r="G121" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="H121" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="I121" t="s">
         <v>425</v>
       </c>
       <c r="J121" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K121" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="L121" t="s">
         <v>472</v>
@@ -8932,7 +8932,7 @@
         <v>476</v>
       </c>
       <c r="O121" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="P121" t="s">
         <v>473</v>
@@ -9079,22 +9079,22 @@
         <v>0</v>
       </c>
       <c r="E124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="s">
         <v>294</v>
       </c>
       <c r="G124" t="s">
-        <v>313</v>
+        <v>229</v>
       </c>
       <c r="H124" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="I124" t="s">
         <v>426</v>
       </c>
       <c r="J124" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K124" t="s">
         <v>294</v>
@@ -9109,13 +9109,13 @@
         <v>474</v>
       </c>
       <c r="O124" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="P124" t="s">
         <v>472</v>
       </c>
       <c r="Q124" t="s">
-        <v>313</v>
+        <v>229</v>
       </c>
       <c r="R124" t="s">
         <v>473</v>
@@ -9132,28 +9132,28 @@
         <v>295</v>
       </c>
       <c r="C125" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
       </c>
       <c r="E125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="s">
         <v>295</v>
       </c>
       <c r="G125" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H125" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="I125" t="s">
         <v>427</v>
       </c>
       <c r="J125" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K125" t="s">
         <v>295</v>
@@ -9162,7 +9162,7 @@
         <v>476</v>
       </c>
       <c r="M125" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="N125" t="s">
         <v>472</v>
@@ -9174,7 +9174,7 @@
         <v>474</v>
       </c>
       <c r="Q125" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="R125" t="s">
         <v>473</v>
@@ -9256,16 +9256,16 @@
         <v>0</v>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="s">
         <v>296</v>
       </c>
       <c r="G127" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="H127" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="I127" t="s">
         <v>428</v>
@@ -9274,7 +9274,7 @@
         <v>343</v>
       </c>
       <c r="K127" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L127" t="s">
         <v>472</v>
@@ -9292,7 +9292,7 @@
         <v>474</v>
       </c>
       <c r="Q127" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="R127" t="s">
         <v>473</v>
@@ -9427,7 +9427,7 @@
         <v>297</v>
       </c>
       <c r="C130" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -9439,22 +9439,22 @@
         <v>297</v>
       </c>
       <c r="G130" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="H130" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="I130" t="s">
         <v>429</v>
       </c>
       <c r="J130" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K130" t="s">
         <v>297</v>
       </c>
       <c r="L130" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M130" t="s">
         <v>429</v>
@@ -9463,13 +9463,13 @@
         <v>474</v>
       </c>
       <c r="O130" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="P130" t="s">
         <v>473</v>
       </c>
       <c r="Q130" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="R130" t="s">
         <v>472</v>
@@ -9545,7 +9545,7 @@
         <v>298</v>
       </c>
       <c r="C132" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
@@ -9557,10 +9557,10 @@
         <v>298</v>
       </c>
       <c r="G132" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="H132" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="I132" t="s">
         <v>430</v>
@@ -9569,13 +9569,13 @@
         <v>343</v>
       </c>
       <c r="K132" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="L132" t="s">
         <v>473</v>
       </c>
       <c r="M132" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="N132" t="s">
         <v>472</v>
@@ -9590,7 +9590,7 @@
         <v>298</v>
       </c>
       <c r="R132" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S132">
         <v>1.048301016262579</v>
@@ -9663,28 +9663,28 @@
         <v>299</v>
       </c>
       <c r="C134" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="s">
         <v>299</v>
       </c>
       <c r="G134" t="s">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c r="H134" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="I134" t="s">
         <v>431</v>
       </c>
       <c r="J134" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K134" t="s">
         <v>431</v>
@@ -9699,13 +9699,13 @@
         <v>475</v>
       </c>
       <c r="O134" t="s">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c r="P134" t="s">
         <v>473</v>
       </c>
       <c r="Q134" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="R134" t="s">
         <v>472</v>
@@ -9722,7 +9722,7 @@
         <v>300</v>
       </c>
       <c r="C135" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>300</v>
       </c>
       <c r="G135" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="H135" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="I135" t="s">
         <v>432</v>
@@ -9746,7 +9746,7 @@
         <v>340</v>
       </c>
       <c r="K135" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="L135" t="s">
         <v>473</v>
@@ -9755,7 +9755,7 @@
         <v>300</v>
       </c>
       <c r="N135" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O135" t="s">
         <v>432</v>
@@ -9764,7 +9764,7 @@
         <v>474</v>
       </c>
       <c r="Q135" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="R135" t="s">
         <v>472</v>
@@ -9899,7 +9899,7 @@
         <v>301</v>
       </c>
       <c r="C138" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
@@ -9911,19 +9911,19 @@
         <v>301</v>
       </c>
       <c r="G138" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="H138" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="I138" t="s">
         <v>433</v>
       </c>
       <c r="J138" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K138" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="L138" t="s">
         <v>472</v>
@@ -9935,7 +9935,7 @@
         <v>474</v>
       </c>
       <c r="O138" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="P138" t="s">
         <v>473</v>
@@ -9944,7 +9944,7 @@
         <v>301</v>
       </c>
       <c r="R138" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S138">
         <v>1.10124178901142</v>
@@ -9958,28 +9958,28 @@
         <v>302</v>
       </c>
       <c r="C139" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
       </c>
       <c r="E139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="s">
         <v>302</v>
       </c>
       <c r="G139" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="H139" t="s">
-        <v>226</v>
+        <v>323</v>
       </c>
       <c r="I139" t="s">
         <v>434</v>
       </c>
       <c r="J139" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K139" t="s">
         <v>302</v>
@@ -9988,7 +9988,7 @@
         <v>476</v>
       </c>
       <c r="M139" t="s">
-        <v>226</v>
+        <v>323</v>
       </c>
       <c r="N139" t="s">
         <v>472</v>
@@ -10000,7 +10000,7 @@
         <v>474</v>
       </c>
       <c r="Q139" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="R139" t="s">
         <v>473</v>
@@ -10076,31 +10076,31 @@
         <v>303</v>
       </c>
       <c r="C141" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="s">
         <v>303</v>
       </c>
       <c r="G141" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="H141" t="s">
-        <v>238</v>
+        <v>327</v>
       </c>
       <c r="I141" t="s">
         <v>435</v>
       </c>
       <c r="J141" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K141" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="L141" t="s">
         <v>473</v>
@@ -10118,7 +10118,7 @@
         <v>475</v>
       </c>
       <c r="Q141" t="s">
-        <v>238</v>
+        <v>327</v>
       </c>
       <c r="R141" t="s">
         <v>472</v>
@@ -10194,7 +10194,7 @@
         <v>304</v>
       </c>
       <c r="C143" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
@@ -10206,19 +10206,19 @@
         <v>304</v>
       </c>
       <c r="G143" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="H143" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="I143" t="s">
         <v>436</v>
       </c>
       <c r="J143" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K143" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="L143" t="s">
         <v>472</v>
@@ -10233,10 +10233,10 @@
         <v>304</v>
       </c>
       <c r="P143" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q143" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="R143" t="s">
         <v>473</v>
@@ -10253,7 +10253,7 @@
         <v>305</v>
       </c>
       <c r="C144" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
@@ -10265,25 +10265,25 @@
         <v>305</v>
       </c>
       <c r="G144" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="H144" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="I144" t="s">
         <v>437</v>
       </c>
       <c r="J144" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K144" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="L144" t="s">
         <v>472</v>
       </c>
       <c r="M144" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="N144" t="s">
         <v>473</v>
@@ -10292,7 +10292,7 @@
         <v>305</v>
       </c>
       <c r="P144" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q144" t="s">
         <v>437</v>
@@ -10312,22 +10312,22 @@
         <v>306</v>
       </c>
       <c r="C145" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
       </c>
       <c r="E145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="s">
         <v>306</v>
       </c>
       <c r="G145" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="H145" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="I145" t="s">
         <v>438</v>
@@ -10336,7 +10336,7 @@
         <v>341</v>
       </c>
       <c r="K145" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="L145" t="s">
         <v>473</v>
@@ -10348,7 +10348,7 @@
         <v>476</v>
       </c>
       <c r="O145" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="P145" t="s">
         <v>472</v>
@@ -10430,28 +10430,28 @@
         <v>307</v>
       </c>
       <c r="C147" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
       </c>
       <c r="E147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="s">
         <v>307</v>
       </c>
       <c r="G147" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H147" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="I147" t="s">
         <v>439</v>
       </c>
       <c r="J147" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K147" t="s">
         <v>307</v>
@@ -10460,7 +10460,7 @@
         <v>475</v>
       </c>
       <c r="M147" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N147" t="s">
         <v>473</v>
@@ -10472,7 +10472,7 @@
         <v>474</v>
       </c>
       <c r="Q147" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="R147" t="s">
         <v>472</v>
@@ -10489,7 +10489,7 @@
         <v>308</v>
       </c>
       <c r="C148" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
@@ -10501,25 +10501,25 @@
         <v>308</v>
       </c>
       <c r="G148" t="s">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="H148" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="I148" t="s">
         <v>440</v>
       </c>
       <c r="J148" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K148" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="L148" t="s">
         <v>472</v>
       </c>
       <c r="M148" t="s">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="N148" t="s">
         <v>473</v>
@@ -10528,7 +10528,7 @@
         <v>308</v>
       </c>
       <c r="P148" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q148" t="s">
         <v>440</v>
@@ -10678,25 +10678,25 @@
         <v>309</v>
       </c>
       <c r="G151" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H151" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="I151" t="s">
         <v>441</v>
       </c>
       <c r="J151" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K151" t="s">
         <v>309</v>
       </c>
       <c r="L151" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M151" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="N151" t="s">
         <v>472</v>
@@ -10708,7 +10708,7 @@
         <v>474</v>
       </c>
       <c r="Q151" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="R151" t="s">
         <v>473</v>
@@ -10737,19 +10737,19 @@
         <v>310</v>
       </c>
       <c r="G152" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="H152" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="I152" t="s">
         <v>442</v>
       </c>
       <c r="J152" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K152" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="L152" t="s">
         <v>472</v>
@@ -10758,10 +10758,10 @@
         <v>310</v>
       </c>
       <c r="N152" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O152" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="P152" t="s">
         <v>473</v>
@@ -10784,7 +10784,7 @@
         <v>311</v>
       </c>
       <c r="C153" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
@@ -10796,16 +10796,16 @@
         <v>311</v>
       </c>
       <c r="G153" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="H153" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="I153" t="s">
         <v>443</v>
       </c>
       <c r="J153" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K153" t="s">
         <v>443</v>
@@ -10814,7 +10814,7 @@
         <v>474</v>
       </c>
       <c r="M153" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="N153" t="s">
         <v>472</v>
@@ -10823,10 +10823,10 @@
         <v>311</v>
       </c>
       <c r="P153" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q153" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="R153" t="s">
         <v>473</v>
@@ -10843,7 +10843,7 @@
         <v>312</v>
       </c>
       <c r="C154" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
@@ -10855,16 +10855,16 @@
         <v>312</v>
       </c>
       <c r="G154" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="H154" t="s">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="I154" t="s">
         <v>444</v>
       </c>
       <c r="J154" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K154" t="s">
         <v>444</v>
@@ -10873,7 +10873,7 @@
         <v>474</v>
       </c>
       <c r="M154" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="N154" t="s">
         <v>473</v>
@@ -10882,10 +10882,10 @@
         <v>312</v>
       </c>
       <c r="P154" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q154" t="s">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="R154" t="s">
         <v>472</v>
@@ -10973,16 +10973,16 @@
         <v>313</v>
       </c>
       <c r="G156" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="H156" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="I156" t="s">
         <v>445</v>
       </c>
       <c r="J156" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K156" t="s">
         <v>445</v>
@@ -10994,16 +10994,16 @@
         <v>313</v>
       </c>
       <c r="N156" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O156" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="P156" t="s">
         <v>473</v>
       </c>
       <c r="Q156" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="R156" t="s">
         <v>472</v>
@@ -11020,7 +11020,7 @@
         <v>314</v>
       </c>
       <c r="C157" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
@@ -11032,10 +11032,10 @@
         <v>314</v>
       </c>
       <c r="G157" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H157" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="I157" t="s">
         <v>446</v>
@@ -11050,13 +11050,13 @@
         <v>474</v>
       </c>
       <c r="M157" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="N157" t="s">
         <v>473</v>
       </c>
       <c r="O157" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="P157" t="s">
         <v>472</v>
@@ -11065,7 +11065,7 @@
         <v>314</v>
       </c>
       <c r="R157" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S157">
         <v>1.02964638170249</v>
@@ -11085,25 +11085,25 @@
         <v>0</v>
       </c>
       <c r="E158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="s">
         <v>315</v>
       </c>
       <c r="G158" t="s">
-        <v>234</v>
+        <v>333</v>
       </c>
       <c r="H158" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="I158" t="s">
         <v>447</v>
       </c>
       <c r="J158" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K158" t="s">
-        <v>234</v>
+        <v>333</v>
       </c>
       <c r="L158" t="s">
         <v>473</v>
@@ -11115,7 +11115,7 @@
         <v>475</v>
       </c>
       <c r="O158" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="P158" t="s">
         <v>472</v>
@@ -11203,16 +11203,16 @@
         <v>0</v>
       </c>
       <c r="E160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" t="s">
         <v>316</v>
       </c>
       <c r="G160" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
       <c r="H160" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="I160" t="s">
         <v>448</v>
@@ -11233,13 +11233,13 @@
         <v>474</v>
       </c>
       <c r="O160" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
       <c r="P160" t="s">
         <v>473</v>
       </c>
       <c r="Q160" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="R160" t="s">
         <v>472</v>
@@ -11374,7 +11374,7 @@
         <v>317</v>
       </c>
       <c r="C163" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
@@ -11386,10 +11386,10 @@
         <v>317</v>
       </c>
       <c r="G163" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="H163" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="I163" t="s">
         <v>449</v>
@@ -11398,7 +11398,7 @@
         <v>342</v>
       </c>
       <c r="K163" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="L163" t="s">
         <v>472</v>
@@ -11413,10 +11413,10 @@
         <v>317</v>
       </c>
       <c r="P163" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q163" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="R163" t="s">
         <v>473</v>
@@ -11439,22 +11439,22 @@
         <v>0</v>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="s">
         <v>318</v>
       </c>
       <c r="G164" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="H164" t="s">
-        <v>234</v>
+        <v>328</v>
       </c>
       <c r="I164" t="s">
         <v>450</v>
       </c>
       <c r="J164" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K164" t="s">
         <v>318</v>
@@ -11463,13 +11463,13 @@
         <v>476</v>
       </c>
       <c r="M164" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="N164" t="s">
         <v>473</v>
       </c>
       <c r="O164" t="s">
-        <v>234</v>
+        <v>328</v>
       </c>
       <c r="P164" t="s">
         <v>472</v>
@@ -11492,7 +11492,7 @@
         <v>319</v>
       </c>
       <c r="C165" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D165" t="b">
         <v>0</v>
@@ -11504,25 +11504,25 @@
         <v>319</v>
       </c>
       <c r="G165" t="s">
-        <v>223</v>
+        <v>294</v>
       </c>
       <c r="H165" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="I165" t="s">
         <v>451</v>
       </c>
       <c r="J165" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K165" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="L165" t="s">
         <v>472</v>
       </c>
       <c r="M165" t="s">
-        <v>223</v>
+        <v>294</v>
       </c>
       <c r="N165" t="s">
         <v>473</v>
@@ -11531,7 +11531,7 @@
         <v>319</v>
       </c>
       <c r="P165" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q165" t="s">
         <v>451</v>
@@ -11551,7 +11551,7 @@
         <v>320</v>
       </c>
       <c r="C166" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
@@ -11563,19 +11563,19 @@
         <v>320</v>
       </c>
       <c r="G166" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="H166" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="I166" t="s">
         <v>452</v>
       </c>
       <c r="J166" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K166" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="L166" t="s">
         <v>472</v>
@@ -11584,7 +11584,7 @@
         <v>320</v>
       </c>
       <c r="N166" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O166" t="s">
         <v>452</v>
@@ -11593,7 +11593,7 @@
         <v>474</v>
       </c>
       <c r="Q166" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="R166" t="s">
         <v>473</v>
@@ -11669,28 +11669,28 @@
         <v>321</v>
       </c>
       <c r="C168" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
       </c>
       <c r="E168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="s">
         <v>321</v>
       </c>
       <c r="G168" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="H168" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="I168" t="s">
         <v>453</v>
       </c>
       <c r="J168" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K168" t="s">
         <v>321</v>
@@ -11705,13 +11705,13 @@
         <v>474</v>
       </c>
       <c r="O168" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="P168" t="s">
         <v>473</v>
       </c>
       <c r="Q168" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="R168" t="s">
         <v>472</v>
@@ -11787,7 +11787,7 @@
         <v>322</v>
       </c>
       <c r="C170" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D170" t="b">
         <v>0</v>
@@ -11799,16 +11799,16 @@
         <v>322</v>
       </c>
       <c r="G170" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="H170" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="I170" t="s">
         <v>454</v>
       </c>
       <c r="J170" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K170" t="s">
         <v>454</v>
@@ -11817,13 +11817,13 @@
         <v>474</v>
       </c>
       <c r="M170" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="N170" t="s">
         <v>472</v>
       </c>
       <c r="O170" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="P170" t="s">
         <v>473</v>
@@ -11832,7 +11832,7 @@
         <v>322</v>
       </c>
       <c r="R170" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S170">
         <v>1.057584991583603</v>
@@ -11846,28 +11846,28 @@
         <v>323</v>
       </c>
       <c r="C171" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
       </c>
       <c r="E171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" t="s">
         <v>323</v>
       </c>
       <c r="G171" t="s">
-        <v>336</v>
+        <v>249</v>
       </c>
       <c r="H171" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="I171" t="s">
         <v>455</v>
       </c>
       <c r="J171" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K171" t="s">
         <v>323</v>
@@ -11876,13 +11876,13 @@
         <v>475</v>
       </c>
       <c r="M171" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="N171" t="s">
         <v>472</v>
       </c>
       <c r="O171" t="s">
-        <v>336</v>
+        <v>249</v>
       </c>
       <c r="P171" t="s">
         <v>473</v>
@@ -11905,37 +11905,37 @@
         <v>324</v>
       </c>
       <c r="C172" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
       </c>
       <c r="E172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="s">
         <v>324</v>
       </c>
       <c r="G172" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="H172" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="I172" t="s">
         <v>456</v>
       </c>
       <c r="J172" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K172" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="L172" t="s">
         <v>473</v>
       </c>
       <c r="M172" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="N172" t="s">
         <v>472</v>
@@ -11976,19 +11976,19 @@
         <v>325</v>
       </c>
       <c r="G173" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="H173" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="I173" t="s">
         <v>457</v>
       </c>
       <c r="J173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K173" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="L173" t="s">
         <v>473</v>
@@ -12000,7 +12000,7 @@
         <v>474</v>
       </c>
       <c r="O173" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="P173" t="s">
         <v>472</v>
@@ -12009,7 +12009,7 @@
         <v>325</v>
       </c>
       <c r="R173" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S173">
         <v>1.093623678406269</v>
@@ -12035,16 +12035,16 @@
         <v>326</v>
       </c>
       <c r="G174" t="s">
-        <v>299</v>
+        <v>230</v>
       </c>
       <c r="H174" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="I174" t="s">
         <v>458</v>
       </c>
       <c r="J174" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K174" t="s">
         <v>458</v>
@@ -12053,13 +12053,13 @@
         <v>474</v>
       </c>
       <c r="M174" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="N174" t="s">
         <v>472</v>
       </c>
       <c r="O174" t="s">
-        <v>299</v>
+        <v>230</v>
       </c>
       <c r="P174" t="s">
         <v>473</v>
@@ -12068,7 +12068,7 @@
         <v>326</v>
       </c>
       <c r="R174" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S174">
         <v>1.089459868521657</v>
@@ -12082,7 +12082,7 @@
         <v>327</v>
       </c>
       <c r="C175" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D175" t="b">
         <v>0</v>
@@ -12094,19 +12094,19 @@
         <v>327</v>
       </c>
       <c r="G175" t="s">
-        <v>332</v>
+        <v>270</v>
       </c>
       <c r="H175" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="I175" t="s">
         <v>459</v>
       </c>
       <c r="J175" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K175" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L175" t="s">
         <v>472</v>
@@ -12121,10 +12121,10 @@
         <v>327</v>
       </c>
       <c r="P175" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q175" t="s">
-        <v>332</v>
+        <v>270</v>
       </c>
       <c r="R175" t="s">
         <v>473</v>
@@ -12206,22 +12206,22 @@
         <v>0</v>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="s">
         <v>328</v>
       </c>
       <c r="G177" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="H177" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="I177" t="s">
         <v>460</v>
       </c>
       <c r="J177" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K177" t="s">
         <v>328</v>
@@ -12230,13 +12230,13 @@
         <v>475</v>
       </c>
       <c r="M177" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="N177" t="s">
         <v>473</v>
       </c>
       <c r="O177" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="P177" t="s">
         <v>472</v>
@@ -12377,7 +12377,7 @@
         <v>329</v>
       </c>
       <c r="C180" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D180" t="b">
         <v>0</v>
@@ -12389,10 +12389,10 @@
         <v>329</v>
       </c>
       <c r="G180" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="H180" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="I180" t="s">
         <v>461</v>
@@ -12401,7 +12401,7 @@
         <v>343</v>
       </c>
       <c r="K180" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="L180" t="s">
         <v>472</v>
@@ -12410,7 +12410,7 @@
         <v>329</v>
       </c>
       <c r="N180" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O180" t="s">
         <v>461</v>
@@ -12419,7 +12419,7 @@
         <v>474</v>
       </c>
       <c r="Q180" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="R180" t="s">
         <v>473</v>
@@ -12436,28 +12436,28 @@
         <v>330</v>
       </c>
       <c r="C181" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
       </c>
       <c r="E181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="s">
         <v>330</v>
       </c>
       <c r="G181" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H181" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I181" t="s">
         <v>462</v>
       </c>
       <c r="J181" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K181" t="s">
         <v>462</v>
@@ -12466,13 +12466,13 @@
         <v>474</v>
       </c>
       <c r="M181" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="N181" t="s">
         <v>473</v>
       </c>
       <c r="O181" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P181" t="s">
         <v>472</v>
@@ -12554,7 +12554,7 @@
         <v>331</v>
       </c>
       <c r="C183" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D183" t="b">
         <v>0</v>
@@ -12566,10 +12566,10 @@
         <v>331</v>
       </c>
       <c r="G183" t="s">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="H183" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="I183" t="s">
         <v>463</v>
@@ -12578,7 +12578,7 @@
         <v>343</v>
       </c>
       <c r="K183" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="L183" t="s">
         <v>472</v>
@@ -12590,7 +12590,7 @@
         <v>474</v>
       </c>
       <c r="O183" t="s">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="P183" t="s">
         <v>473</v>
@@ -12599,7 +12599,7 @@
         <v>331</v>
       </c>
       <c r="R183" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S183">
         <v>1.066496926068283</v>
@@ -12625,10 +12625,10 @@
         <v>332</v>
       </c>
       <c r="G184" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="H184" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I184" t="s">
         <v>464</v>
@@ -12643,7 +12643,7 @@
         <v>474</v>
       </c>
       <c r="M184" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="N184" t="s">
         <v>472</v>
@@ -12652,10 +12652,10 @@
         <v>332</v>
       </c>
       <c r="P184" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q184" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="R184" t="s">
         <v>473</v>
@@ -12731,7 +12731,7 @@
         <v>333</v>
       </c>
       <c r="C186" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D186" t="b">
         <v>0</v>
@@ -12743,19 +12743,19 @@
         <v>333</v>
       </c>
       <c r="G186" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="H186" t="s">
-        <v>304</v>
+        <v>220</v>
       </c>
       <c r="I186" t="s">
         <v>465</v>
       </c>
       <c r="J186" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K186" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="L186" t="s">
         <v>473</v>
@@ -12767,7 +12767,7 @@
         <v>474</v>
       </c>
       <c r="O186" t="s">
-        <v>304</v>
+        <v>220</v>
       </c>
       <c r="P186" t="s">
         <v>472</v>
@@ -12776,7 +12776,7 @@
         <v>333</v>
       </c>
       <c r="R186" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S186">
         <v>1.21531429586331</v>
@@ -12790,7 +12790,7 @@
         <v>334</v>
       </c>
       <c r="C187" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D187" t="b">
         <v>0</v>
@@ -12802,10 +12802,10 @@
         <v>334</v>
       </c>
       <c r="G187" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="H187" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="I187" t="s">
         <v>466</v>
@@ -12814,7 +12814,7 @@
         <v>343</v>
       </c>
       <c r="K187" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="L187" t="s">
         <v>473</v>
@@ -12829,10 +12829,10 @@
         <v>334</v>
       </c>
       <c r="P187" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q187" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="R187" t="s">
         <v>472</v>
@@ -12849,22 +12849,22 @@
         <v>335</v>
       </c>
       <c r="C188" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
       </c>
       <c r="E188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" t="s">
         <v>335</v>
       </c>
       <c r="G188" t="s">
-        <v>260</v>
+        <v>339</v>
       </c>
       <c r="H188" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="I188" t="s">
         <v>467</v>
@@ -12885,13 +12885,13 @@
         <v>474</v>
       </c>
       <c r="O188" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="P188" t="s">
         <v>472</v>
       </c>
       <c r="Q188" t="s">
-        <v>260</v>
+        <v>339</v>
       </c>
       <c r="R188" t="s">
         <v>473</v>
@@ -12908,7 +12908,7 @@
         <v>336</v>
       </c>
       <c r="C189" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D189" t="b">
         <v>0</v>
@@ -12920,16 +12920,16 @@
         <v>336</v>
       </c>
       <c r="G189" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="H189" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="I189" t="s">
         <v>468</v>
       </c>
       <c r="J189" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K189" t="s">
         <v>468</v>
@@ -12941,16 +12941,16 @@
         <v>336</v>
       </c>
       <c r="N189" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O189" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="P189" t="s">
         <v>473</v>
       </c>
       <c r="Q189" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="R189" t="s">
         <v>472</v>
@@ -12967,7 +12967,7 @@
         <v>337</v>
       </c>
       <c r="C190" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D190" t="b">
         <v>0</v>
@@ -12979,16 +12979,16 @@
         <v>337</v>
       </c>
       <c r="G190" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="H190" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I190" t="s">
         <v>469</v>
       </c>
       <c r="J190" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K190" t="s">
         <v>469</v>
@@ -13000,16 +13000,16 @@
         <v>337</v>
       </c>
       <c r="N190" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O190" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="P190" t="s">
         <v>472</v>
       </c>
       <c r="Q190" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="R190" t="s">
         <v>473</v>
@@ -13032,22 +13032,22 @@
         <v>0</v>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="s">
         <v>338</v>
       </c>
       <c r="G191" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H191" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I191" t="s">
         <v>470</v>
       </c>
       <c r="J191" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K191" t="s">
         <v>470</v>
@@ -13056,7 +13056,7 @@
         <v>474</v>
       </c>
       <c r="M191" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="N191" t="s">
         <v>472</v>
@@ -13068,7 +13068,7 @@
         <v>476</v>
       </c>
       <c r="Q191" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="R191" t="s">
         <v>473</v>
@@ -13144,7 +13144,7 @@
         <v>339</v>
       </c>
       <c r="C193" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D193" t="b">
         <v>0</v>
@@ -13156,19 +13156,19 @@
         <v>339</v>
       </c>
       <c r="G193" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="H193" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="I193" t="s">
         <v>471</v>
       </c>
       <c r="J193" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K193" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="L193" t="s">
         <v>472</v>
@@ -13177,10 +13177,10 @@
         <v>339</v>
       </c>
       <c r="N193" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O193" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="P193" t="s">
         <v>473</v>
